--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F7BFA-24C9-49EE-8632-7CB6E7C7728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BFED8-1A85-4A3D-9622-3BACC6F2FBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>Source</t>
   </si>
@@ -160,24 +160,15 @@
     <t>#EF7C34</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>Maribyrnong</t>
   </si>
   <si>
     <t>Ariele Apartments</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Moving family</t>
   </si>
   <si>
-    <t>M3</t>
-  </si>
-  <si>
     <t>Hume</t>
   </si>
   <si>
@@ -199,21 +190,6 @@
     <t>Apartment Resident Close Contact</t>
   </si>
   <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>#cdc9e5</t>
-  </si>
-  <si>
-    <t>#9a96cc</t>
-  </si>
-  <si>
     <t>H1 40</t>
   </si>
   <si>
@@ -245,6 +221,39 @@
   </si>
   <si>
     <t>MCG</t>
+  </si>
+  <si>
+    <t>#d9d6ec</t>
+  </si>
+  <si>
+    <t>#b4afd9</t>
+  </si>
+  <si>
+    <t>#8e8ac5</t>
+  </si>
+  <si>
+    <t>M7 m50</t>
+  </si>
+  <si>
+    <t>M8 m60</t>
+  </si>
+  <si>
+    <t>M9 9yo</t>
+  </si>
+  <si>
+    <t>M1 30</t>
+  </si>
+  <si>
+    <t>M2 30</t>
+  </si>
+  <si>
+    <t>M3 child</t>
+  </si>
+  <si>
+    <t>M10 11yo</t>
+  </si>
+  <si>
+    <t>M11 Adult</t>
   </si>
 </sst>
 </file>
@@ -314,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0">
-  <autoFilter ref="A1:H15" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
+  <autoFilter ref="A1:H17" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -640,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -679,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -687,25 +696,25 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -713,25 +722,25 @@
         <v>44390</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -739,25 +748,25 @@
         <v>44390</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -765,25 +774,25 @@
         <v>44391</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -791,25 +800,25 @@
         <v>44391</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -817,25 +826,25 @@
         <v>44390</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -843,25 +852,25 @@
         <v>44390</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -869,25 +878,25 @@
         <v>44390</v>
       </c>
       <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -895,25 +904,25 @@
         <v>44391</v>
       </c>
       <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -921,25 +930,25 @@
         <v>44392</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -947,25 +956,25 @@
         <v>44392</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -973,25 +982,25 @@
         <v>44392</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -999,16 +1008,16 @@
         <v>44392</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1017,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1025,16 +1034,16 @@
         <v>44392</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1043,7 +1052,59 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1060,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1089,7 +1150,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1103,7 +1164,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1117,7 +1178,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1129,6 +1190,9 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44393</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8BFED8-1A85-4A3D-9622-3BACC6F2FBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1946167F-1749-4253-BF31-C59FDA503B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="87">
   <si>
     <t>Source</t>
   </si>
@@ -223,24 +223,12 @@
     <t>MCG</t>
   </si>
   <si>
-    <t>#d9d6ec</t>
-  </si>
-  <si>
-    <t>#b4afd9</t>
-  </si>
-  <si>
-    <t>#8e8ac5</t>
-  </si>
-  <si>
     <t>M7 m50</t>
   </si>
   <si>
     <t>M8 m60</t>
   </si>
   <si>
-    <t>M9 9yo</t>
-  </si>
-  <si>
     <t>M1 30</t>
   </si>
   <si>
@@ -250,10 +238,64 @@
     <t>M3 child</t>
   </si>
   <si>
-    <t>M10 11yo</t>
-  </si>
-  <si>
-    <t>M11 Adult</t>
+    <t>#e1def0</t>
+  </si>
+  <si>
+    <t>#c3bfe0</t>
+  </si>
+  <si>
+    <t>#a4a0d1</t>
+  </si>
+  <si>
+    <t>#8682c2</t>
+  </si>
+  <si>
+    <t>Lockdown Colour</t>
+  </si>
+  <si>
+    <t>#e0c1c1</t>
+  </si>
+  <si>
+    <t>M9 9</t>
+  </si>
+  <si>
+    <t>M14 20</t>
+  </si>
+  <si>
+    <t>M10 child</t>
+  </si>
+  <si>
+    <t>M11 m20</t>
+  </si>
+  <si>
+    <t>M12 m20</t>
+  </si>
+  <si>
+    <t>M13 m30</t>
+  </si>
+  <si>
+    <t>M15 m30</t>
+  </si>
+  <si>
+    <t>M16 m30</t>
+  </si>
+  <si>
+    <t>Young &amp; Jacksons</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18 50</t>
+  </si>
+  <si>
+    <t>M19 50</t>
+  </si>
+  <si>
+    <t>Bacchus Marsh Grammar</t>
+  </si>
+  <si>
+    <t>Bacchus Marsh Grammar Staff</t>
   </si>
 </sst>
 </file>
@@ -323,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0">
-  <autoFilter ref="A1:H17" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0">
+  <autoFilter ref="A1:H25" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -340,13 +382,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:D38" totalsRowShown="0">
-  <autoFilter ref="A1:D38" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DAA8AEF8-478F-4E46-98F7-0C92EE656F58}" name="Date_Colours" displayName="Date_Colours" ref="A1:E38" totalsRowShown="0">
+  <autoFilter ref="A1:E38" xr:uid="{3DD9FBFF-BED0-449F-82F8-7EAB35BABB9A}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13AAEB0D-CEE3-442B-8610-0D547BF3FE2D}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0FEC2CF-191D-4A49-9857-35DF0B70785F}" name="Colour Code"/>
     <tableColumn id="3" xr3:uid="{5515E15E-02B9-4694-A9AF-CEC9E403B50A}" name="Colour Code dbRaevn"/>
     <tableColumn id="4" xr3:uid="{965FB11F-4D10-4566-B8AC-F8EA56AEE87C}" name="Shape dbRaevn"/>
+    <tableColumn id="5" xr3:uid="{CE9BAB83-30D9-44D7-AECB-19EA81051E7C}" name="Lockdown Colour"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -649,17 +692,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.265625" customWidth="1"/>
     <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.06640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -797,7 +840,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
@@ -823,13 +866,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -849,13 +892,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -875,13 +918,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -901,10 +944,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
@@ -985,7 +1028,7 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -1008,10 +1051,10 @@
         <v>44392</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -1034,10 +1077,10 @@
         <v>44392</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1063,7 +1106,7 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1089,7 +1132,7 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -1104,6 +1147,208 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1119,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1131,7 +1376,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1144,13 +1389,16 @@
       <c r="D1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1159,12 +1407,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1173,12 +1421,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1187,12 +1435,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1200,19 +1448,28 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44394</v>
       </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44395</v>
       </c>
@@ -1222,8 +1479,11 @@
       <c r="D7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44396</v>
       </c>
@@ -1233,8 +1493,11 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44397</v>
       </c>
@@ -1244,8 +1507,11 @@
       <c r="D9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44398</v>
       </c>
@@ -1255,8 +1521,11 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44399</v>
       </c>
@@ -1266,8 +1535,11 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44400</v>
       </c>
@@ -1277,8 +1549,11 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44401</v>
       </c>
@@ -1288,8 +1563,11 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44402</v>
       </c>
@@ -1299,8 +1577,11 @@
       <c r="D14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44403</v>
       </c>
@@ -1310,8 +1591,11 @@
       <c r="D15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44404</v>
       </c>
@@ -1321,8 +1605,11 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44405</v>
       </c>
@@ -1332,8 +1619,11 @@
       <c r="D17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44406</v>
       </c>
@@ -1343,8 +1633,11 @@
       <c r="D18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44407</v>
       </c>
@@ -1354,8 +1647,11 @@
       <c r="D19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44408</v>
       </c>
@@ -1365,8 +1661,11 @@
       <c r="D20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44409</v>
       </c>
@@ -1376,8 +1675,11 @@
       <c r="D21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44410</v>
       </c>
@@ -1387,16 +1689,22 @@
       <c r="D22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44411</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44412</v>
       </c>
@@ -1406,16 +1714,22 @@
       <c r="D24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44413</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44414</v>
       </c>
@@ -1425,8 +1739,11 @@
       <c r="D26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44415</v>
       </c>
@@ -1436,16 +1753,22 @@
       <c r="D27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44416</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44417</v>
       </c>
@@ -1455,24 +1778,33 @@
       <c r="D29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44418</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44419</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44420</v>
       </c>
@@ -1482,16 +1814,22 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44421</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44422</v>
       </c>
@@ -1501,32 +1839,44 @@
       <c r="D34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44423</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44424</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44425</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44426</v>
       </c>
@@ -1535,6 +1885,9 @@
       </c>
       <c r="D38" t="s">
         <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1946167F-1749-4253-BF31-C59FDA503B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F4D79-F609-460D-88BF-925095DE8537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="114">
   <si>
     <t>Source</t>
   </si>
@@ -190,21 +190,9 @@
     <t>Apartment Resident Close Contact</t>
   </si>
   <si>
-    <t>H1 40</t>
-  </si>
-  <si>
-    <t>H2 child</t>
-  </si>
-  <si>
     <t>Returning family from NSW</t>
   </si>
   <si>
-    <t>H3 40</t>
-  </si>
-  <si>
-    <t>H4 child</t>
-  </si>
-  <si>
     <t>H5 m30</t>
   </si>
   <si>
@@ -296,6 +284,99 @@
   </si>
   <si>
     <t>Bacchus Marsh Grammar Staff</t>
+  </si>
+  <si>
+    <t>H1 40w</t>
+  </si>
+  <si>
+    <t>H2 10</t>
+  </si>
+  <si>
+    <t>H4 10</t>
+  </si>
+  <si>
+    <t>H3 m40</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>9th - 12th July</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>Bacchus Marsh Grammar Student</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>Trinity Grammar</t>
+  </si>
+  <si>
+    <t>11th - 14th July</t>
+  </si>
+  <si>
+    <t>Ms Frankie Restaurant</t>
+  </si>
+  <si>
+    <t>M24 m20</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>Phillip Island Trip</t>
+  </si>
+  <si>
+    <t>M31</t>
+  </si>
+  <si>
+    <t>St Patricks Primary School</t>
+  </si>
+  <si>
+    <t>M33 w</t>
+  </si>
+  <si>
+    <t>M23 w</t>
+  </si>
+  <si>
+    <t>M35 w</t>
+  </si>
+  <si>
+    <t>M36 w</t>
+  </si>
+  <si>
+    <t>M37</t>
+  </si>
+  <si>
+    <t>Partner</t>
   </si>
 </sst>
 </file>
@@ -365,8 +446,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0">
-  <autoFilter ref="A1:H25" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H44" totalsRowShown="0">
+  <autoFilter ref="A1:H44" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -692,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -739,10 +820,10 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -751,13 +832,13 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -765,10 +846,10 @@
         <v>44390</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -777,7 +858,7 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -791,10 +872,10 @@
         <v>44390</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -803,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -817,10 +898,10 @@
         <v>44391</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -829,7 +910,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -843,19 +924,19 @@
         <v>44392</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -869,10 +950,10 @@
         <v>44392</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -895,10 +976,10 @@
         <v>44392</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -921,10 +1002,10 @@
         <v>44392</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -947,10 +1028,10 @@
         <v>44392</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -973,10 +1054,10 @@
         <v>44392</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -999,10 +1080,10 @@
         <v>44392</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -1025,19 +1106,19 @@
         <v>44392</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1051,16 +1132,16 @@
         <v>44392</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1077,16 +1158,16 @@
         <v>44392</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1103,19 +1184,19 @@
         <v>44393</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1129,19 +1210,19 @@
         <v>44393</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1155,19 +1236,19 @@
         <v>44393</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1181,19 +1262,19 @@
         <v>44393</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1207,13 +1288,16 @@
         <v>44393</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1227,19 +1311,19 @@
         <v>44393</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1253,19 +1337,19 @@
         <v>44393</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1276,19 +1360,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1305,19 +1389,19 @@
         <v>44393</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1331,24 +1415,518 @@
         <v>44393</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="H25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1366,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1390,7 +1968,7 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1398,7 +1976,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1412,7 +1990,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1426,7 +2004,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1440,7 +2018,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1449,7 +2027,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1466,7 +2044,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1480,7 +2058,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1494,7 +2072,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1508,7 +2086,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1522,7 +2100,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1536,7 +2114,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1550,7 +2128,7 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -1564,7 +2142,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -1578,7 +2156,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1592,7 +2170,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -1606,7 +2184,7 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -1620,7 +2198,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -1634,7 +2212,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -1648,7 +2226,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -1662,7 +2240,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -1676,7 +2254,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -1690,7 +2268,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -1701,7 +2279,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -1715,7 +2293,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -1726,7 +2304,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -1740,7 +2318,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -1754,7 +2332,7 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -1765,7 +2343,7 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -1779,7 +2357,7 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -1790,7 +2368,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -1801,7 +2379,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -1815,7 +2393,7 @@
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -1826,7 +2404,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -1840,7 +2418,7 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -1851,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -1862,7 +2440,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -1873,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -1887,7 +2465,7 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F4D79-F609-460D-88BF-925095DE8537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29E2C8-7D1D-422B-B139-8E2DA356ECAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="140">
   <si>
     <t>Source</t>
   </si>
@@ -226,18 +226,6 @@
     <t>M3 child</t>
   </si>
   <si>
-    <t>#e1def0</t>
-  </si>
-  <si>
-    <t>#c3bfe0</t>
-  </si>
-  <si>
-    <t>#a4a0d1</t>
-  </si>
-  <si>
-    <t>#8682c2</t>
-  </si>
-  <si>
     <t>Lockdown Colour</t>
   </si>
   <si>
@@ -334,15 +322,9 @@
     <t>M30</t>
   </si>
   <si>
-    <t>Trinity Grammar</t>
-  </si>
-  <si>
     <t>11th - 14th July</t>
   </si>
   <si>
-    <t>Ms Frankie Restaurant</t>
-  </si>
-  <si>
     <t>M24 m20</t>
   </si>
   <si>
@@ -377,6 +359,102 @@
   </si>
   <si>
     <t>Partner</t>
+  </si>
+  <si>
+    <t>#ecebf5</t>
+  </si>
+  <si>
+    <t>#d9d6ec</t>
+  </si>
+  <si>
+    <t>#c6c3e2</t>
+  </si>
+  <si>
+    <t>#b4afd9</t>
+  </si>
+  <si>
+    <t>#a19ccf</t>
+  </si>
+  <si>
+    <t>#8e8ac5</t>
+  </si>
+  <si>
+    <t>#7a78bc</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>Under Investigation</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>Ms Frankie Restaurant Staff</t>
+  </si>
+  <si>
+    <t>Ms Frankie Restaurant Patron</t>
+  </si>
+  <si>
+    <t>M38</t>
+  </si>
+  <si>
+    <t>M39</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>M43</t>
+  </si>
+  <si>
+    <t>M44</t>
+  </si>
+  <si>
+    <t>AAMI Park</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M46</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>Close Contact</t>
+  </si>
+  <si>
+    <t>Trinity Grammar Staff</t>
+  </si>
+  <si>
+    <t>M48 m10</t>
+  </si>
+  <si>
+    <t>Trinity Grammar Student</t>
+  </si>
+  <si>
+    <t>MCG - Mildura Case</t>
   </si>
 </sst>
 </file>
@@ -446,8 +524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H44" totalsRowShown="0">
-  <autoFilter ref="A1:H44" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H61" totalsRowShown="0">
+  <autoFilter ref="A1:H61" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -773,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -820,10 +898,10 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -846,10 +924,10 @@
         <v>44390</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -872,10 +950,10 @@
         <v>44390</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -898,10 +976,10 @@
         <v>44391</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -924,7 +1002,7 @@
         <v>44392</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
@@ -1161,7 +1239,7 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1187,7 +1265,7 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1213,7 +1291,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
@@ -1239,7 +1317,7 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1265,7 +1343,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -1291,13 +1369,13 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1314,16 +1392,16 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1340,16 +1418,16 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1366,7 +1444,7 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -1392,16 +1470,16 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1418,16 +1496,16 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1444,7 +1522,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -1467,19 +1545,19 @@
         <v>44394</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1493,19 +1571,19 @@
         <v>44394</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1519,19 +1597,19 @@
         <v>44394</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1545,10 +1623,10 @@
         <v>44394</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
@@ -1557,7 +1635,7 @@
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1571,10 +1649,10 @@
         <v>44394</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -1583,7 +1661,7 @@
         <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1597,19 +1675,19 @@
         <v>44394</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
         <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>100</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -1623,10 +1701,10 @@
         <v>44394</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -1635,7 +1713,7 @@
         <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -1649,10 +1727,10 @@
         <v>44394</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
         <v>41</v>
@@ -1661,7 +1739,7 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1675,10 +1753,10 @@
         <v>44394</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -1687,7 +1765,7 @@
         <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1704,7 +1782,7 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
@@ -1727,10 +1805,10 @@
         <v>44394</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>41</v>
@@ -1739,7 +1817,7 @@
         <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -1753,10 +1831,10 @@
         <v>44394</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -1765,7 +1843,7 @@
         <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -1779,10 +1857,10 @@
         <v>44394</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1791,7 +1869,7 @@
         <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -1805,16 +1883,16 @@
         <v>44394</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -1831,16 +1909,16 @@
         <v>44394</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1857,16 +1935,16 @@
         <v>44394</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -1883,16 +1961,16 @@
         <v>44394</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -1909,24 +1987,466 @@
         <v>44394</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
       </c>
       <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
         <v>77</v>
       </c>
-      <c r="F44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
+        <v>136</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1945,7 +2465,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:L2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1968,7 +2488,7 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1976,7 +2496,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1990,7 +2510,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2004,7 +2524,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2018,7 +2538,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2027,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -2035,7 +2555,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2044,13 +2564,16 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44395</v>
       </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
@@ -2058,13 +2581,16 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44396</v>
       </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -2072,13 +2598,16 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44397</v>
       </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -2086,7 +2615,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -2100,7 +2629,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -2114,7 +2643,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -2128,7 +2657,7 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -2142,7 +2671,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -2156,7 +2685,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -2170,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -2184,7 +2713,7 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -2198,7 +2727,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -2212,7 +2741,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -2226,7 +2755,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -2240,7 +2769,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -2254,7 +2783,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -2268,7 +2797,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -2279,7 +2808,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -2293,7 +2822,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -2304,7 +2833,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -2318,7 +2847,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -2332,7 +2861,7 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -2343,7 +2872,7 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -2357,7 +2886,7 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -2368,7 +2897,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -2379,7 +2908,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -2393,7 +2922,7 @@
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -2404,7 +2933,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -2418,7 +2947,7 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -2429,7 +2958,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -2440,7 +2969,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -2451,7 +2980,7 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -2465,7 +2994,7 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC29E2C8-7D1D-422B-B139-8E2DA356ECAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520BA69A-7AC8-4AEA-A7B7-E6FD91E9D7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="155">
   <si>
     <t>Source</t>
   </si>
@@ -274,15 +274,6 @@
     <t>Bacchus Marsh Grammar Staff</t>
   </si>
   <si>
-    <t>H1 40w</t>
-  </si>
-  <si>
-    <t>H2 10</t>
-  </si>
-  <si>
-    <t>H4 10</t>
-  </si>
-  <si>
     <t>H3 m40</t>
   </si>
   <si>
@@ -298,9 +289,6 @@
     <t>M21</t>
   </si>
   <si>
-    <t>M32</t>
-  </si>
-  <si>
     <t>Bacchus Marsh Grammar Student</t>
   </si>
   <si>
@@ -361,36 +349,12 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>#ecebf5</t>
-  </si>
-  <si>
-    <t>#d9d6ec</t>
-  </si>
-  <si>
-    <t>#c6c3e2</t>
-  </si>
-  <si>
-    <t>#b4afd9</t>
-  </si>
-  <si>
-    <t>#a19ccf</t>
-  </si>
-  <si>
-    <t>#8e8ac5</t>
-  </si>
-  <si>
-    <t>#7a78bc</t>
-  </si>
-  <si>
     <t>H7</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>Under Investigation</t>
-  </si>
-  <si>
     <t>H9</t>
   </si>
   <si>
@@ -439,22 +403,103 @@
     <t>M49</t>
   </si>
   <si>
-    <t>M50</t>
-  </si>
-  <si>
     <t>Close Contact</t>
   </si>
   <si>
     <t>Trinity Grammar Staff</t>
   </si>
   <si>
-    <t>M48 m10</t>
-  </si>
-  <si>
     <t>Trinity Grammar Student</t>
   </si>
   <si>
     <t>MCG - Mildura Case</t>
+  </si>
+  <si>
+    <t>#e9e8f4</t>
+  </si>
+  <si>
+    <t>#d4d1e9</t>
+  </si>
+  <si>
+    <t>#bebade</t>
+  </si>
+  <si>
+    <t>#a9a4d3</t>
+  </si>
+  <si>
+    <t>#938fc8</t>
+  </si>
+  <si>
+    <t>#7d7abd</t>
+  </si>
+  <si>
+    <t>H1 f40</t>
+  </si>
+  <si>
+    <t>H2 f10</t>
+  </si>
+  <si>
+    <t>H4 f10</t>
+  </si>
+  <si>
+    <t>Returning family from NSW Close Contacs</t>
+  </si>
+  <si>
+    <t>Close Contacts</t>
+  </si>
+  <si>
+    <t>M51</t>
+  </si>
+  <si>
+    <t>M52</t>
+  </si>
+  <si>
+    <t>M53</t>
+  </si>
+  <si>
+    <t>M54</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M58</t>
+  </si>
+  <si>
+    <t>M59</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>Mildura</t>
+  </si>
+  <si>
+    <t>M57 m10s</t>
+  </si>
+  <si>
+    <t>M56 m10s</t>
+  </si>
+  <si>
+    <t>M50 m30s</t>
+  </si>
+  <si>
+    <t>M48 m10s</t>
+  </si>
+  <si>
+    <t>Phillip Island?</t>
+  </si>
+  <si>
+    <t>M32 10s</t>
+  </si>
+  <si>
+    <t>M62</t>
+  </si>
+  <si>
+    <t>Crafty Squire</t>
   </si>
 </sst>
 </file>
@@ -524,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H61" totalsRowShown="0">
-  <autoFilter ref="A1:H61" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H73" totalsRowShown="0">
+  <autoFilter ref="A1:H73" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -851,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -898,10 +943,10 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -924,10 +969,10 @@
         <v>44390</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -950,10 +995,10 @@
         <v>44390</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -976,10 +1021,10 @@
         <v>44391</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1002,7 +1047,7 @@
         <v>44392</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
@@ -1375,7 +1420,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1522,7 +1567,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -1548,7 +1593,7 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -1574,7 +1619,7 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -1597,10 +1642,10 @@
         <v>44394</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -1609,7 +1654,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1626,7 +1671,7 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
@@ -1635,7 +1680,7 @@
         <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1652,7 +1697,7 @@
         <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -1661,7 +1706,7 @@
         <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1678,16 +1723,16 @@
         <v>70</v>
       </c>
       <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
         <v>91</v>
-      </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -1704,7 +1749,7 @@
         <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -1713,7 +1758,7 @@
         <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -1730,7 +1775,7 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
         <v>41</v>
@@ -1739,7 +1784,7 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1756,7 +1801,7 @@
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -1765,7 +1810,7 @@
         <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1782,7 +1827,7 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
@@ -1805,10 +1850,10 @@
         <v>44394</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
         <v>41</v>
@@ -1817,7 +1862,7 @@
         <v>57</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -1831,10 +1876,10 @@
         <v>44394</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -1843,7 +1888,7 @@
         <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -1860,7 +1905,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1869,7 +1914,7 @@
         <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -1886,7 +1931,7 @@
         <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -1912,7 +1957,7 @@
         <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
@@ -1938,7 +1983,7 @@
         <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -1964,7 +2009,7 @@
         <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -1987,10 +2032,10 @@
         <v>44394</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -1999,7 +2044,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -2013,10 +2058,10 @@
         <v>44395</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -2039,19 +2084,19 @@
         <v>44395</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -2065,19 +2110,19 @@
         <v>44395</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -2091,19 +2136,19 @@
         <v>44395</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2120,7 +2165,7 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
@@ -2129,7 +2174,7 @@
         <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -2146,7 +2191,7 @@
         <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
@@ -2155,7 +2200,7 @@
         <v>57</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -2172,7 +2217,7 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
@@ -2181,7 +2226,7 @@
         <v>57</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -2198,7 +2243,7 @@
         <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
@@ -2207,7 +2252,7 @@
         <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -2224,7 +2269,7 @@
         <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
@@ -2233,7 +2278,7 @@
         <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -2250,7 +2295,7 @@
         <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
@@ -2259,7 +2304,7 @@
         <v>57</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -2276,7 +2321,7 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
@@ -2285,7 +2330,7 @@
         <v>57</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2299,10 +2344,10 @@
         <v>44395</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -2311,7 +2356,7 @@
         <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -2328,7 +2373,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
         <v>41</v>
@@ -2354,7 +2399,7 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
@@ -2363,7 +2408,7 @@
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2377,10 +2422,10 @@
         <v>44395</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
@@ -2389,7 +2434,7 @@
         <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2403,10 +2448,10 @@
         <v>44395</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
@@ -2432,7 +2477,7 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
         <v>41</v>
@@ -2441,12 +2486,321 @@
         <v>57</v>
       </c>
       <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
         <v>139</v>
       </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" t="s">
+        <v>117</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2462,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2474,7 +2828,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2491,12 +2845,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2504,13 +2858,34 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2519,12 +2894,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2533,12 +2908,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2550,12 +2925,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2567,12 +2942,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2584,12 +2959,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -2601,13 +2976,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44397</v>
       </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -2618,7 +2990,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44398</v>
       </c>
@@ -2632,7 +3004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44399</v>
       </c>
@@ -2646,7 +3018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44400</v>
       </c>
@@ -2660,7 +3032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44401</v>
       </c>
@@ -2674,7 +3046,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44402</v>
       </c>
@@ -2688,7 +3060,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44403</v>
       </c>
@@ -2702,7 +3074,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44404</v>
       </c>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520BA69A-7AC8-4AEA-A7B7-E6FD91E9D7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD91F7-7313-487F-A6C6-FC6619EAB307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="173">
   <si>
     <t>Source</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Not Isolated</t>
   </si>
   <si>
-    <t>#6666b2</t>
-  </si>
-  <si>
     <t>Apartment Resident</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>M11 m20</t>
   </si>
   <si>
-    <t>M12 m20</t>
-  </si>
-  <si>
     <t>M13 m30</t>
   </si>
   <si>
@@ -415,24 +409,6 @@
     <t>MCG - Mildura Case</t>
   </si>
   <si>
-    <t>#e9e8f4</t>
-  </si>
-  <si>
-    <t>#d4d1e9</t>
-  </si>
-  <si>
-    <t>#bebade</t>
-  </si>
-  <si>
-    <t>#a9a4d3</t>
-  </si>
-  <si>
-    <t>#938fc8</t>
-  </si>
-  <si>
-    <t>#7d7abd</t>
-  </si>
-  <si>
     <t>H1 f40</t>
   </si>
   <si>
@@ -500,6 +476,84 @@
   </si>
   <si>
     <t>Crafty Squire</t>
+  </si>
+  <si>
+    <t>#ecebf5</t>
+  </si>
+  <si>
+    <t>H11 f20s</t>
+  </si>
+  <si>
+    <t>Under Investigation</t>
+  </si>
+  <si>
+    <t>Q1 f20s</t>
+  </si>
+  <si>
+    <t>M63</t>
+  </si>
+  <si>
+    <t>M64</t>
+  </si>
+  <si>
+    <t>M65</t>
+  </si>
+  <si>
+    <t>M66</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>M68</t>
+  </si>
+  <si>
+    <t>M69</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>M72</t>
+  </si>
+  <si>
+    <t>M73</t>
+  </si>
+  <si>
+    <t>M74</t>
+  </si>
+  <si>
+    <t>Ms Frankie Restaurant</t>
+  </si>
+  <si>
+    <t>Trinity Grammar</t>
+  </si>
+  <si>
+    <t>M71 f10s</t>
+  </si>
+  <si>
+    <t>M12 m20s</t>
+  </si>
+  <si>
+    <t>#f5f5fa</t>
+  </si>
+  <si>
+    <t>#e2e2f0</t>
+  </si>
+  <si>
+    <t>#d8d8ec</t>
+  </si>
+  <si>
+    <t>#cfcee7</t>
+  </si>
+  <si>
+    <t>#c5c5e2</t>
+  </si>
+  <si>
+    <t>#bcbbdd</t>
+  </si>
+  <si>
+    <t>#b2b2d8</t>
   </si>
 </sst>
 </file>
@@ -569,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H73" totalsRowShown="0">
-  <autoFilter ref="A1:H73" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H87" totalsRowShown="0">
+  <autoFilter ref="A1:H87" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -896,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -943,10 +997,10 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -955,7 +1009,7 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -969,10 +1023,10 @@
         <v>44390</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -981,7 +1035,7 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -995,10 +1049,10 @@
         <v>44390</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -1007,7 +1061,7 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -1021,10 +1075,10 @@
         <v>44391</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1033,7 +1087,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -1047,19 +1101,19 @@
         <v>44392</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1073,10 +1127,10 @@
         <v>44392</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -1099,10 +1153,10 @@
         <v>44392</v>
       </c>
       <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1125,10 +1179,10 @@
         <v>44392</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -1151,10 +1205,10 @@
         <v>44392</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -1163,7 +1217,7 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -1177,10 +1231,10 @@
         <v>44392</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1189,7 +1243,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -1203,10 +1257,10 @@
         <v>44392</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -1215,7 +1269,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1229,19 +1283,19 @@
         <v>44392</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -1255,16 +1309,16 @@
         <v>44392</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1281,16 +1335,16 @@
         <v>44392</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1307,19 +1361,19 @@
         <v>44393</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1333,19 +1387,19 @@
         <v>44393</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -1359,19 +1413,19 @@
         <v>44393</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1385,19 +1439,19 @@
         <v>44393</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1411,16 +1465,16 @@
         <v>44393</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -1434,19 +1488,19 @@
         <v>44393</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>73</v>
-      </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -1460,19 +1514,19 @@
         <v>44393</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -1486,16 +1540,16 @@
         <v>44394</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1512,19 +1566,19 @@
         <v>44393</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -1538,19 +1592,19 @@
         <v>44393</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
         <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" t="s">
-        <v>78</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -1564,16 +1618,16 @@
         <v>44394</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1590,19 +1644,19 @@
         <v>44394</v>
       </c>
       <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1616,19 +1670,19 @@
         <v>44394</v>
       </c>
       <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
         <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" t="s">
-        <v>78</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1642,19 +1696,19 @@
         <v>44394</v>
       </c>
       <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
         <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1668,19 +1722,19 @@
         <v>44394</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1694,19 +1748,19 @@
         <v>44394</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1720,19 +1774,19 @@
         <v>44394</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -1746,19 +1800,19 @@
         <v>44394</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -1772,19 +1826,19 @@
         <v>44394</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -1798,19 +1852,19 @@
         <v>44394</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -1824,19 +1878,19 @@
         <v>44394</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -1850,19 +1904,19 @@
         <v>44394</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
         <v>93</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -1876,19 +1930,19 @@
         <v>44394</v>
       </c>
       <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
       <c r="D38" t="s">
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -1902,19 +1956,19 @@
         <v>44394</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -1928,16 +1982,16 @@
         <v>44394</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -1954,16 +2008,16 @@
         <v>44394</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1980,16 +2034,16 @@
         <v>44394</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -2006,16 +2060,16 @@
         <v>44394</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -2032,19 +2086,19 @@
         <v>44394</v>
       </c>
       <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" t="s">
         <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" t="s">
-        <v>103</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -2058,16 +2112,16 @@
         <v>44395</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -2084,19 +2138,19 @@
         <v>44395</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -2110,19 +2164,19 @@
         <v>44395</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -2136,19 +2190,19 @@
         <v>44395</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2162,19 +2216,19 @@
         <v>44395</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -2188,19 +2242,19 @@
         <v>44395</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -2214,19 +2268,19 @@
         <v>44395</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -2240,19 +2294,19 @@
         <v>44395</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -2266,19 +2320,19 @@
         <v>44395</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -2292,19 +2346,19 @@
         <v>44395</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" t="s">
         <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" t="s">
-        <v>117</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -2318,19 +2372,19 @@
         <v>44395</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2344,19 +2398,19 @@
         <v>44395</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -2370,19 +2424,19 @@
         <v>44395</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
         <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -2396,19 +2450,19 @@
         <v>44395</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -2422,19 +2476,19 @@
         <v>44395</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -2448,16 +2502,16 @@
         <v>44395</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -2474,19 +2528,19 @@
         <v>44396</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
         <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -2500,16 +2554,16 @@
         <v>44396</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
         <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2526,19 +2580,19 @@
         <v>44396</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
@@ -2552,19 +2606,19 @@
         <v>44396</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -2578,19 +2632,19 @@
         <v>44396</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
@@ -2604,19 +2658,19 @@
         <v>44396</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
@@ -2630,19 +2684,19 @@
         <v>44396</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -2656,19 +2710,19 @@
         <v>44396</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -2682,16 +2736,16 @@
         <v>44396</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
@@ -2705,19 +2759,19 @@
         <v>44396</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -2731,19 +2785,19 @@
         <v>44396</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -2757,19 +2811,19 @@
         <v>44396</v>
       </c>
       <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s">
         <v>82</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" t="s">
-        <v>77</v>
-      </c>
-      <c r="F72" t="s">
-        <v>84</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
@@ -2783,24 +2837,382 @@
         <v>44396</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
         <v>153</v>
       </c>
-      <c r="D73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s">
+        <v>162</v>
+      </c>
+      <c r="F78" t="s">
+        <v>106</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
         <v>154</v>
       </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" t="s">
+        <v>162</v>
+      </c>
+      <c r="F80" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" t="s">
+        <v>164</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" t="s">
+        <v>163</v>
+      </c>
+      <c r="F84" t="s">
+        <v>122</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2816,11 +3228,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2828,7 +3238,7 @@
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2842,15 +3252,15 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2858,34 +3268,13 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -2894,12 +3283,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -2908,12 +3297,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2922,15 +3311,15 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2939,15 +3328,15 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2956,15 +3345,15 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -2973,13 +3362,16 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44397</v>
       </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -2987,10 +3379,10 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44398</v>
       </c>
@@ -3001,10 +3393,10 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44399</v>
       </c>
@@ -3015,10 +3407,10 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44400</v>
       </c>
@@ -3029,10 +3421,10 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44401</v>
       </c>
@@ -3043,10 +3435,10 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44402</v>
       </c>
@@ -3057,10 +3449,10 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44403</v>
       </c>
@@ -3071,10 +3463,10 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44404</v>
       </c>
@@ -3085,7 +3477,7 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -3099,7 +3491,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -3113,7 +3505,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -3127,7 +3519,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -3141,7 +3533,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -3155,7 +3547,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -3169,7 +3561,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -3180,7 +3572,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -3194,7 +3586,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -3205,7 +3597,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -3219,7 +3611,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -3233,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -3244,7 +3636,7 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -3258,7 +3650,7 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -3269,7 +3661,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -3280,7 +3672,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -3294,7 +3686,7 @@
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -3305,7 +3697,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -3319,7 +3711,7 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -3330,7 +3722,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -3341,7 +3733,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -3352,7 +3744,7 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -3366,7 +3758,7 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BD91F7-7313-487F-A6C6-FC6619EAB307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01111A73-278F-4918-AE7F-AFF7FD6CF90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="202">
   <si>
     <t>Source</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Isolated</t>
   </si>
   <si>
-    <t>Not Isolated</t>
-  </si>
-  <si>
     <t>Apartment Resident</t>
   </si>
   <si>
@@ -478,15 +475,9 @@
     <t>Crafty Squire</t>
   </si>
   <si>
-    <t>#ecebf5</t>
-  </si>
-  <si>
     <t>H11 f20s</t>
   </si>
   <si>
-    <t>Under Investigation</t>
-  </si>
-  <si>
     <t>Q1 f20s</t>
   </si>
   <si>
@@ -535,25 +526,121 @@
     <t>M12 m20s</t>
   </si>
   <si>
-    <t>#f5f5fa</t>
-  </si>
-  <si>
-    <t>#e2e2f0</t>
-  </si>
-  <si>
-    <t>#d8d8ec</t>
-  </si>
-  <si>
-    <t>#cfcee7</t>
-  </si>
-  <si>
-    <t>#c5c5e2</t>
-  </si>
-  <si>
-    <t>#bcbbdd</t>
-  </si>
-  <si>
     <t>#b2b2d8</t>
+  </si>
+  <si>
+    <t>#f6f6fb</t>
+  </si>
+  <si>
+    <t>#eeedf6</t>
+  </si>
+  <si>
+    <t>#e5e5f2</t>
+  </si>
+  <si>
+    <t>#dddcee</t>
+  </si>
+  <si>
+    <t>#d4d4e9</t>
+  </si>
+  <si>
+    <t>#cccbe5</t>
+  </si>
+  <si>
+    <t>#c3c3e1</t>
+  </si>
+  <si>
+    <t>#bbbadc</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>M75</t>
+  </si>
+  <si>
+    <t>M78</t>
+  </si>
+  <si>
+    <t>M79</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M82</t>
+  </si>
+  <si>
+    <t>M83</t>
+  </si>
+  <si>
+    <t>M84</t>
+  </si>
+  <si>
+    <t>M85</t>
+  </si>
+  <si>
+    <t>M86</t>
+  </si>
+  <si>
+    <t>M87</t>
+  </si>
+  <si>
+    <t>M88</t>
+  </si>
+  <si>
+    <t>M89</t>
+  </si>
+  <si>
+    <t>M90</t>
+  </si>
+  <si>
+    <t>M91</t>
+  </si>
+  <si>
+    <t>M92</t>
+  </si>
+  <si>
+    <t>M93</t>
+  </si>
+  <si>
+    <t>M94</t>
+  </si>
+  <si>
+    <t>M95</t>
+  </si>
+  <si>
+    <t>M76 m10s</t>
+  </si>
+  <si>
+    <t>M77 m10s</t>
+  </si>
+  <si>
+    <t>Trinity Grammar Student Close Contacts</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>Ms Frankie Restaurant Patron Close Contacts</t>
+  </si>
+  <si>
+    <t>Young &amp; Jacksons Close Contacts</t>
+  </si>
+  <si>
+    <t>Workplace</t>
+  </si>
+  <si>
+    <t>Bacchus Marsh Grammar Staff Close Contacts</t>
+  </si>
+  <si>
+    <t>St Patricks Primary School Close Contacts</t>
+  </si>
+  <si>
+    <t>West Gate Tunner worker</t>
   </si>
 </sst>
 </file>
@@ -623,8 +710,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H87" totalsRowShown="0">
-  <autoFilter ref="A1:H87" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H109" totalsRowShown="0">
+  <autoFilter ref="A1:H109" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -950,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -997,10 +1084,10 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -1009,7 +1096,7 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -1023,10 +1110,10 @@
         <v>44390</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -1035,7 +1122,7 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1049,10 +1136,10 @@
         <v>44390</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -1061,13 +1148,13 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1075,10 +1162,10 @@
         <v>44391</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1087,7 +1174,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -1101,25 +1188,25 @@
         <v>44392</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1127,10 +1214,10 @@
         <v>44392</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -1145,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1153,10 +1240,10 @@
         <v>44392</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -1171,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1179,10 +1266,10 @@
         <v>44392</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -1197,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1205,10 +1292,10 @@
         <v>44392</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -1217,13 +1304,13 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1231,10 +1318,10 @@
         <v>44392</v>
       </c>
       <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -1243,13 +1330,13 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1257,10 +1344,10 @@
         <v>44392</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -1269,13 +1356,13 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1283,25 +1370,25 @@
         <v>44392</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1309,16 +1396,16 @@
         <v>44392</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1327,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1335,16 +1422,16 @@
         <v>44392</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1353,7 +1440,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1361,25 +1448,25 @@
         <v>44393</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1387,25 +1474,25 @@
         <v>44393</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1413,25 +1500,25 @@
         <v>44393</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1439,25 +1526,25 @@
         <v>44393</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1465,22 +1552,22 @@
         <v>44393</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1488,25 +1575,25 @@
         <v>44393</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1514,25 +1601,25 @@
         <v>44393</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1540,16 +1627,16 @@
         <v>44394</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1558,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1566,25 +1653,25 @@
         <v>44393</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
       </c>
       <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
         <v>75</v>
       </c>
-      <c r="F24" t="s">
-        <v>76</v>
-      </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1592,25 +1679,25 @@
         <v>44393</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>76</v>
-      </c>
       <c r="G25" t="s">
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -1618,16 +1705,16 @@
         <v>44394</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1636,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -1644,25 +1731,25 @@
         <v>44394</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
       <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
         <v>75</v>
       </c>
-      <c r="F27" t="s">
-        <v>76</v>
-      </c>
       <c r="G27" t="s">
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -1670,25 +1757,25 @@
         <v>44394</v>
       </c>
       <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
         <v>74</v>
       </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>75</v>
       </c>
-      <c r="F28" t="s">
-        <v>76</v>
-      </c>
       <c r="G28" t="s">
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -1696,25 +1783,25 @@
         <v>44394</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -1722,25 +1809,25 @@
         <v>44394</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -1748,25 +1835,25 @@
         <v>44394</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -1774,25 +1861,25 @@
         <v>44394</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -1800,25 +1887,25 @@
         <v>44394</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -1826,25 +1913,25 @@
         <v>44394</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -1852,25 +1939,25 @@
         <v>44394</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -1878,25 +1965,25 @@
         <v>44394</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -1904,25 +1991,25 @@
         <v>44394</v>
       </c>
       <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
         <v>90</v>
       </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
       <c r="D37" t="s">
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -1930,25 +2017,25 @@
         <v>44394</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
         <v>92</v>
       </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>93</v>
-      </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -1956,25 +2043,25 @@
         <v>44394</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
         <v>94</v>
       </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
       <c r="G39" t="s">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -1982,16 +2069,16 @@
         <v>44394</v>
       </c>
       <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
         <v>70</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" t="s">
-        <v>71</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
@@ -2000,7 +2087,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2008,16 +2095,16 @@
         <v>44394</v>
       </c>
       <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
         <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" t="s">
-        <v>71</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -2026,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2034,16 +2121,16 @@
         <v>44394</v>
       </c>
       <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
         <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -2052,7 +2139,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2060,16 +2147,16 @@
         <v>44394</v>
       </c>
       <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
         <v>70</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" t="s">
-        <v>71</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -2078,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2086,25 +2173,25 @@
         <v>44394</v>
       </c>
       <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
         <v>99</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
         <v>100</v>
       </c>
-      <c r="D44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" t="s">
-        <v>101</v>
-      </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2112,16 +2199,16 @@
         <v>44395</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -2130,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2138,25 +2225,25 @@
         <v>44395</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2164,25 +2251,25 @@
         <v>44395</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2190,25 +2277,25 @@
         <v>44395</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2216,25 +2303,25 @@
         <v>44395</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2242,25 +2329,25 @@
         <v>44395</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2268,25 +2355,25 @@
         <v>44395</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2294,25 +2381,25 @@
         <v>44395</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -2320,25 +2407,25 @@
         <v>44395</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -2346,25 +2433,25 @@
         <v>44395</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -2372,25 +2459,25 @@
         <v>44395</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
         <v>114</v>
       </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" t="s">
-        <v>115</v>
-      </c>
       <c r="G55" t="s">
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -2398,25 +2485,25 @@
         <v>44395</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -2424,25 +2511,25 @@
         <v>44395</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
         <v>41</v>
       </c>
       <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s">
         <v>75</v>
       </c>
-      <c r="F57" t="s">
-        <v>76</v>
-      </c>
       <c r="G57" t="s">
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2450,25 +2537,25 @@
         <v>44395</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -2476,25 +2563,25 @@
         <v>44395</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -2502,16 +2589,16 @@
         <v>44395</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
@@ -2520,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -2528,25 +2615,25 @@
         <v>44396</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
         <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -2554,16 +2641,16 @@
         <v>44396</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" t="s">
         <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2572,7 +2659,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -2580,25 +2667,25 @@
         <v>44396</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -2606,25 +2693,25 @@
         <v>44396</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -2632,25 +2719,25 @@
         <v>44396</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -2658,25 +2745,25 @@
         <v>44396</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -2684,25 +2771,25 @@
         <v>44396</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -2710,25 +2797,25 @@
         <v>44396</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -2736,22 +2823,22 @@
         <v>44396</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -2759,25 +2846,25 @@
         <v>44396</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -2785,25 +2872,25 @@
         <v>44396</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -2811,19 +2898,19 @@
         <v>44396</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
@@ -2837,25 +2924,25 @@
         <v>44396</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
       </c>
-      <c r="D73" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
-      </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -2863,25 +2950,25 @@
         <v>44397</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F74" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -2889,25 +2976,25 @@
         <v>44397</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -2915,19 +3002,19 @@
         <v>44397</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -2941,19 +3028,19 @@
         <v>44397</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
         <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -2967,19 +3054,19 @@
         <v>44397</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -2993,19 +3080,19 @@
         <v>44397</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -3019,19 +3106,19 @@
         <v>44397</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -3045,16 +3132,16 @@
         <v>44397</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D81" t="s">
         <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -3071,16 +3158,16 @@
         <v>44397</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
         <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -3094,25 +3181,25 @@
         <v>44397</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
         <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -3120,25 +3207,25 @@
         <v>44397</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -3146,16 +3233,16 @@
         <v>44397</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F85" t="s">
         <v>8</v>
@@ -3172,16 +3259,16 @@
         <v>44397</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
       </c>
       <c r="E86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F86" t="s">
         <v>8</v>
@@ -3198,22 +3285,594 @@
         <v>44397</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D87" t="s">
         <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" t="s">
+        <v>120</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" t="s">
+        <v>121</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B92" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" t="s">
+        <v>174</v>
+      </c>
+      <c r="D92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" t="s">
+        <v>105</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F95" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" t="s">
+        <v>106</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B97" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97" t="s">
+        <v>196</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" t="s">
+        <v>196</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B99" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" t="s">
+        <v>70</v>
+      </c>
+      <c r="F99" t="s">
+        <v>197</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" t="s">
+        <v>70</v>
+      </c>
+      <c r="F100" t="s">
+        <v>198</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B101" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" t="s">
+        <v>70</v>
+      </c>
+      <c r="F101" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" t="s">
+        <v>114</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" t="s">
+        <v>114</v>
+      </c>
+      <c r="G103" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" t="s">
+        <v>199</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>187</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" t="s">
+        <v>199</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" t="s">
+        <v>94</v>
+      </c>
+      <c r="F107" t="s">
+        <v>94</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" t="s">
+        <v>200</v>
+      </c>
+      <c r="G108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B109" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" t="s">
+        <v>201</v>
+      </c>
+      <c r="F109" t="s">
+        <v>201</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +3911,7 @@
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3260,7 +3919,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3274,7 +3933,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3288,7 +3947,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -3302,7 +3961,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3311,7 +3970,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -3319,7 +3978,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -3328,7 +3987,7 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3336,7 +3995,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -3345,7 +4004,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -3353,7 +4012,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -3362,7 +4021,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -3370,7 +4029,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -3379,13 +4038,16 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44398</v>
       </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -3393,7 +4055,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -3407,7 +4069,7 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -3421,7 +4083,7 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -3435,7 +4097,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -3449,7 +4111,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -3463,7 +4125,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -3477,7 +4139,7 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -3491,7 +4153,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -3505,7 +4167,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -3519,7 +4181,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -3533,7 +4195,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -3547,7 +4209,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -3561,7 +4223,7 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -3572,7 +4234,7 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -3586,7 +4248,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -3597,7 +4259,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -3611,7 +4273,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -3625,7 +4287,7 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -3636,7 +4298,7 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -3650,7 +4312,7 @@
         <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -3661,7 +4323,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -3672,7 +4334,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -3686,7 +4348,7 @@
         <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -3697,7 +4359,7 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -3711,7 +4373,7 @@
         <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -3722,7 +4384,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -3733,7 +4395,7 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -3744,7 +4406,7 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -3758,7 +4420,7 @@
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01111A73-278F-4918-AE7F-AFF7FD6CF90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA88F055-41FA-45DC-BA42-7A9D91EBF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="229">
   <si>
     <t>Source</t>
   </si>
@@ -394,9 +394,6 @@
     <t>M49</t>
   </si>
   <si>
-    <t>Close Contact</t>
-  </si>
-  <si>
     <t>Trinity Grammar Staff</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>M48 m10s</t>
   </si>
   <si>
-    <t>Phillip Island?</t>
-  </si>
-  <si>
     <t>M32 10s</t>
   </si>
   <si>
@@ -529,30 +523,6 @@
     <t>#b2b2d8</t>
   </si>
   <si>
-    <t>#f6f6fb</t>
-  </si>
-  <si>
-    <t>#eeedf6</t>
-  </si>
-  <si>
-    <t>#e5e5f2</t>
-  </si>
-  <si>
-    <t>#dddcee</t>
-  </si>
-  <si>
-    <t>#d4d4e9</t>
-  </si>
-  <si>
-    <t>#cccbe5</t>
-  </si>
-  <si>
-    <t>#c3c3e1</t>
-  </si>
-  <si>
-    <t>#bbbadc</t>
-  </si>
-  <si>
     <t>H12</t>
   </si>
   <si>
@@ -641,6 +611,117 @@
   </si>
   <si>
     <t>West Gate Tunner worker</t>
+  </si>
+  <si>
+    <t>#f7f7fb</t>
+  </si>
+  <si>
+    <t>#f0eff7</t>
+  </si>
+  <si>
+    <t>#e8e7f3</t>
+  </si>
+  <si>
+    <t>#e0e0ef</t>
+  </si>
+  <si>
+    <t>#d8d8ec</t>
+  </si>
+  <si>
+    <t>#d1d0e8</t>
+  </si>
+  <si>
+    <t>#c9c9e4</t>
+  </si>
+  <si>
+    <t>#c1c1e0</t>
+  </si>
+  <si>
+    <t>#bab9dc</t>
+  </si>
+  <si>
+    <t>H13</t>
+  </si>
+  <si>
+    <t>H14</t>
+  </si>
+  <si>
+    <t>M96</t>
+  </si>
+  <si>
+    <t>M97</t>
+  </si>
+  <si>
+    <t>M98</t>
+  </si>
+  <si>
+    <t>M99</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M106</t>
+  </si>
+  <si>
+    <t>M107</t>
+  </si>
+  <si>
+    <t>M108</t>
+  </si>
+  <si>
+    <t>M109</t>
+  </si>
+  <si>
+    <t>M110</t>
+  </si>
+  <si>
+    <t>M111</t>
+  </si>
+  <si>
+    <t>M112</t>
+  </si>
+  <si>
+    <t>M113</t>
+  </si>
+  <si>
+    <t>M114</t>
+  </si>
+  <si>
+    <t>M115</t>
+  </si>
+  <si>
+    <t>M116</t>
+  </si>
+  <si>
+    <t>M117</t>
+  </si>
+  <si>
+    <t>M118</t>
+  </si>
+  <si>
+    <t>M119</t>
+  </si>
+  <si>
+    <t>Phillip Island</t>
+  </si>
+  <si>
+    <t>Phillip Island Close Contacts</t>
   </si>
 </sst>
 </file>
@@ -710,8 +791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H109" totalsRowShown="0">
-  <autoFilter ref="A1:H109" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H135" totalsRowShown="0">
+  <autoFilter ref="A1:H135" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1037,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1087,7 +1168,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -1113,7 +1194,7 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -1154,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1165,7 +1246,7 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1206,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1232,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1258,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1284,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1310,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1336,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1362,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1388,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1414,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1440,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1466,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1492,7 +1573,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1503,7 +1584,7 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1518,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1544,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1567,7 +1648,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1593,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1619,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1645,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1671,7 +1752,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1697,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -1723,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -1749,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -1775,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -1786,7 +1867,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -1801,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -1818,16 +1899,16 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -1844,16 +1925,16 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -1879,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -1896,7 +1977,7 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F33" t="s">
         <v>105</v>
@@ -1905,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -1922,7 +2003,7 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F34" t="s">
         <v>105</v>
@@ -1931,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -1948,7 +2029,7 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
         <v>106</v>
@@ -1957,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -1983,7 +2064,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -2009,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -2035,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -2061,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2087,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2113,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2139,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2165,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2191,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2217,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2234,16 +2315,16 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2260,16 +2341,16 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2286,16 +2367,16 @@
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2312,7 +2393,7 @@
         <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s">
         <v>106</v>
@@ -2321,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2338,7 +2419,7 @@
         <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F50" t="s">
         <v>105</v>
@@ -2347,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2364,7 +2445,7 @@
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
         <v>106</v>
@@ -2373,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2390,7 +2471,7 @@
         <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
         <v>106</v>
@@ -2399,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -2416,7 +2497,7 @@
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F53" t="s">
         <v>106</v>
@@ -2425,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -2451,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -2477,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -2485,7 +2566,7 @@
         <v>44395</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
         <v>115</v>
@@ -2494,16 +2575,16 @@
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -2529,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2546,16 +2627,16 @@
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -2566,22 +2647,22 @@
         <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -2607,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -2618,7 +2699,7 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
         <v>41</v>
@@ -2627,13 +2708,13 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -2641,16 +2722,16 @@
         <v>44396</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
         <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2659,7 +2740,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -2670,13 +2751,13 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F63" t="s">
         <v>106</v>
@@ -2685,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -2696,13 +2777,13 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
         <v>106</v>
@@ -2711,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -2722,13 +2803,13 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F65" t="s">
         <v>106</v>
@@ -2737,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -2748,13 +2829,13 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
         <v>106</v>
@@ -2763,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -2774,22 +2855,22 @@
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -2800,22 +2881,22 @@
         <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -2823,22 +2904,25 @@
         <v>44396</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>227</v>
+      </c>
+      <c r="F69" t="s">
+        <v>92</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -2849,7 +2933,7 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
@@ -2864,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -2875,7 +2959,7 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
@@ -2890,7 +2974,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -2901,7 +2985,7 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -2927,7 +3011,7 @@
         <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
         <v>41</v>
@@ -2936,13 +3020,13 @@
         <v>55</v>
       </c>
       <c r="F73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -2953,22 +3037,22 @@
         <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -2979,7 +3063,7 @@
         <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
@@ -2994,7 +3078,7 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -3005,13 +3089,13 @@
         <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
         <v>105</v>
@@ -3031,13 +3115,13 @@
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D77" t="s">
         <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F77" t="s">
         <v>105</v>
@@ -3057,13 +3141,13 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F78" t="s">
         <v>105</v>
@@ -3083,13 +3167,13 @@
         <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
         <v>106</v>
@@ -3109,13 +3193,13 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
         <v>106</v>
@@ -3135,13 +3219,13 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
         <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -3161,13 +3245,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
         <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -3184,22 +3268,22 @@
         <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
         <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -3210,22 +3294,22 @@
         <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -3233,10 +3317,10 @@
         <v>44397</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
@@ -3259,10 +3343,10 @@
         <v>44397</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
@@ -3288,19 +3372,22 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D87" t="s">
         <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>227</v>
+      </c>
+      <c r="F87" t="s">
+        <v>92</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -3308,16 +3395,16 @@
         <v>44398</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D88" t="s">
         <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
@@ -3326,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -3337,16 +3424,16 @@
         <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D89" t="s">
         <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -3360,19 +3447,19 @@
         <v>44398</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
         <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -3386,19 +3473,19 @@
         <v>44398</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -3412,19 +3499,19 @@
         <v>44398</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D92" t="s">
         <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -3438,19 +3525,19 @@
         <v>44398</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
         <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F93" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -3467,13 +3554,13 @@
         <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
         <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F94" t="s">
         <v>105</v>
@@ -3493,13 +3580,13 @@
         <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D95" t="s">
         <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F95" t="s">
         <v>105</v>
@@ -3519,13 +3606,13 @@
         <v>108</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
         <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F96" t="s">
         <v>106</v>
@@ -3534,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -3542,19 +3629,19 @@
         <v>44398</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D97" t="s">
         <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F97" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -3568,19 +3655,19 @@
         <v>44398</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D98" t="s">
         <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -3594,10 +3681,10 @@
         <v>44398</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D99" t="s">
         <v>41</v>
@@ -3606,13 +3693,13 @@
         <v>70</v>
       </c>
       <c r="F99" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -3620,10 +3707,10 @@
         <v>44398</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D100" t="s">
         <v>41</v>
@@ -3632,13 +3719,13 @@
         <v>70</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -3646,10 +3733,10 @@
         <v>44398</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D101" t="s">
         <v>41</v>
@@ -3658,13 +3745,13 @@
         <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -3675,7 +3762,7 @@
         <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D102" t="s">
         <v>41</v>
@@ -3701,7 +3788,7 @@
         <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D103" t="s">
         <v>41</v>
@@ -3727,7 +3814,7 @@
         <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D104" t="s">
         <v>41</v>
@@ -3736,7 +3823,7 @@
         <v>74</v>
       </c>
       <c r="F104" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -3753,7 +3840,7 @@
         <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D105" t="s">
         <v>41</v>
@@ -3762,7 +3849,7 @@
         <v>74</v>
       </c>
       <c r="F105" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -3779,7 +3866,7 @@
         <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D106" t="s">
         <v>41</v>
@@ -3805,7 +3892,7 @@
         <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D107" t="s">
         <v>41</v>
@@ -3831,7 +3918,7 @@
         <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D108" t="s">
         <v>41</v>
@@ -3840,7 +3927,7 @@
         <v>94</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -3854,25 +3941,701 @@
         <v>44398</v>
       </c>
       <c r="B109" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" t="s">
         <v>191</v>
       </c>
-      <c r="C109" t="s">
+      <c r="F109" t="s">
         <v>191</v>
       </c>
-      <c r="D109" t="s">
-        <v>41</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" t="s">
         <v>201</v>
       </c>
-      <c r="F109" t="s">
-        <v>201</v>
-      </c>
-      <c r="G109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" t="s">
-        <v>195</v>
+      <c r="D110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" t="s">
+        <v>125</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C111" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" t="s">
+        <v>125</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" t="s">
+        <v>158</v>
+      </c>
+      <c r="F112" t="s">
+        <v>119</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B113" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" t="s">
+        <v>158</v>
+      </c>
+      <c r="F113" t="s">
+        <v>119</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B114" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" t="s">
+        <v>158</v>
+      </c>
+      <c r="F114" t="s">
+        <v>120</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B115" t="s">
+        <v>138</v>
+      </c>
+      <c r="C115" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" t="s">
+        <v>158</v>
+      </c>
+      <c r="F115" t="s">
+        <v>184</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" t="s">
+        <v>158</v>
+      </c>
+      <c r="F116" t="s">
+        <v>184</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B117" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" t="s">
+        <v>158</v>
+      </c>
+      <c r="F117" t="s">
+        <v>184</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B118" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" t="s">
+        <v>209</v>
+      </c>
+      <c r="D118" t="s">
+        <v>41</v>
+      </c>
+      <c r="E118" t="s">
+        <v>158</v>
+      </c>
+      <c r="F118" t="s">
+        <v>184</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>210</v>
+      </c>
+      <c r="D119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" t="s">
+        <v>157</v>
+      </c>
+      <c r="F119" t="s">
+        <v>105</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>211</v>
+      </c>
+      <c r="D120" t="s">
+        <v>41</v>
+      </c>
+      <c r="E120" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" t="s">
+        <v>106</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>212</v>
+      </c>
+      <c r="D121" t="s">
+        <v>41</v>
+      </c>
+      <c r="E121" t="s">
+        <v>157</v>
+      </c>
+      <c r="F121" t="s">
+        <v>106</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" t="s">
+        <v>41</v>
+      </c>
+      <c r="E122" t="s">
+        <v>157</v>
+      </c>
+      <c r="F122" t="s">
+        <v>106</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B123" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" t="s">
+        <v>157</v>
+      </c>
+      <c r="F123" t="s">
+        <v>186</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" t="s">
+        <v>41</v>
+      </c>
+      <c r="E124" t="s">
+        <v>157</v>
+      </c>
+      <c r="F124" t="s">
+        <v>186</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" t="s">
+        <v>227</v>
+      </c>
+      <c r="F125" t="s">
+        <v>92</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" t="s">
+        <v>217</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" t="s">
+        <v>227</v>
+      </c>
+      <c r="F126" t="s">
+        <v>228</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B127" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" t="s">
+        <v>218</v>
+      </c>
+      <c r="D127" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" t="s">
+        <v>94</v>
+      </c>
+      <c r="F127" t="s">
+        <v>94</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B128" t="s">
+        <v>93</v>
+      </c>
+      <c r="C128" t="s">
+        <v>219</v>
+      </c>
+      <c r="D128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" t="s">
+        <v>94</v>
+      </c>
+      <c r="F128" t="s">
+        <v>94</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B129" t="s">
+        <v>93</v>
+      </c>
+      <c r="C129" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" t="s">
+        <v>94</v>
+      </c>
+      <c r="F129" t="s">
+        <v>94</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" t="s">
+        <v>221</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" t="s">
+        <v>94</v>
+      </c>
+      <c r="F130" t="s">
+        <v>94</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>222</v>
+      </c>
+      <c r="D131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E131" t="s">
+        <v>94</v>
+      </c>
+      <c r="F131" t="s">
+        <v>190</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" t="s">
+        <v>223</v>
+      </c>
+      <c r="D132" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" t="s">
+        <v>55</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" t="s">
+        <v>224</v>
+      </c>
+      <c r="D133" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" t="s">
+        <v>136</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" t="s">
+        <v>226</v>
+      </c>
+      <c r="D135" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" t="s">
+        <v>55</v>
+      </c>
+      <c r="F135" t="s">
+        <v>114</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +4682,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3933,7 +4696,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3947,7 +4710,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -3961,7 +4724,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3978,7 +4741,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -3995,7 +4758,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -4012,7 +4775,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -4029,7 +4792,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -4046,7 +4809,7 @@
         <v>44398</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -4061,6 +4824,9 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44399</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA88F055-41FA-45DC-BA42-7A9D91EBF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761111D-D62A-470D-B52D-6596C05FFAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="246">
   <si>
     <t>Source</t>
   </si>
@@ -556,9 +556,6 @@
     <t>M86</t>
   </si>
   <si>
-    <t>M87</t>
-  </si>
-  <si>
     <t>M88</t>
   </si>
   <si>
@@ -598,48 +595,12 @@
     <t>Ms Frankie Restaurant Patron Close Contacts</t>
   </si>
   <si>
-    <t>Young &amp; Jacksons Close Contacts</t>
-  </si>
-  <si>
-    <t>Workplace</t>
-  </si>
-  <si>
     <t>Bacchus Marsh Grammar Staff Close Contacts</t>
   </si>
   <si>
     <t>St Patricks Primary School Close Contacts</t>
   </si>
   <si>
-    <t>West Gate Tunner worker</t>
-  </si>
-  <si>
-    <t>#f7f7fb</t>
-  </si>
-  <si>
-    <t>#f0eff7</t>
-  </si>
-  <si>
-    <t>#e8e7f3</t>
-  </si>
-  <si>
-    <t>#e0e0ef</t>
-  </si>
-  <si>
-    <t>#d8d8ec</t>
-  </si>
-  <si>
-    <t>#d1d0e8</t>
-  </si>
-  <si>
-    <t>#c9c9e4</t>
-  </si>
-  <si>
-    <t>#c1c1e0</t>
-  </si>
-  <si>
-    <t>#bab9dc</t>
-  </si>
-  <si>
     <t>H13</t>
   </si>
   <si>
@@ -715,13 +676,103 @@
     <t>M118</t>
   </si>
   <si>
-    <t>M119</t>
-  </si>
-  <si>
     <t>Phillip Island</t>
   </si>
   <si>
     <t>Phillip Island Close Contacts</t>
+  </si>
+  <si>
+    <t>#f8f8fb</t>
+  </si>
+  <si>
+    <t>#f1f1f8</t>
+  </si>
+  <si>
+    <t>#eae9f4</t>
+  </si>
+  <si>
+    <t>#e3e2f1</t>
+  </si>
+  <si>
+    <t>#dcdbed</t>
+  </si>
+  <si>
+    <t>#d5d4ea</t>
+  </si>
+  <si>
+    <t>#cecde6</t>
+  </si>
+  <si>
+    <t>#c7c6e3</t>
+  </si>
+  <si>
+    <t>#c0c0df</t>
+  </si>
+  <si>
+    <t>#b9b9dc</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>M120</t>
+  </si>
+  <si>
+    <t>M121</t>
+  </si>
+  <si>
+    <t>M122</t>
+  </si>
+  <si>
+    <t>M123</t>
+  </si>
+  <si>
+    <t>M124</t>
+  </si>
+  <si>
+    <t>M125</t>
+  </si>
+  <si>
+    <t>M130</t>
+  </si>
+  <si>
+    <t>M131</t>
+  </si>
+  <si>
+    <t>M132</t>
+  </si>
+  <si>
+    <t>AAMI Park Close Contacts</t>
+  </si>
+  <si>
+    <t>M119 m</t>
+  </si>
+  <si>
+    <t>M126 m10s</t>
+  </si>
+  <si>
+    <t>M127 m10s</t>
+  </si>
+  <si>
+    <t>M128 child</t>
+  </si>
+  <si>
+    <t>M129 10s</t>
+  </si>
+  <si>
+    <t>West Gate Tunnel</t>
+  </si>
+  <si>
+    <t>West Gate Tunnel worker</t>
+  </si>
+  <si>
+    <t>Cabinet Makers</t>
+  </si>
+  <si>
+    <t>Household - Casey Hospital Worker</t>
+  </si>
+  <si>
+    <t>M87 f</t>
   </si>
 </sst>
 </file>
@@ -791,8 +842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H135" totalsRowShown="0">
-  <autoFilter ref="A1:H135" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H149" totalsRowShown="0">
+  <autoFilter ref="A1:H149" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1118,15 +1169,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109:F109"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.06640625" bestFit="1" customWidth="1"/>
@@ -1235,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1287,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1313,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1339,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1365,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1391,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1417,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1443,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1469,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1495,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1521,7 +1573,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1547,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1573,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1599,7 +1651,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1625,7 +1677,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1648,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1674,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1700,7 +1752,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1726,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1752,7 +1804,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1778,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -1804,7 +1856,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -1830,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -1856,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -1882,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -1908,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -1934,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -1960,7 +2012,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -1986,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -2012,7 +2064,7 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -2038,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -2064,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -2090,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -2116,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -2142,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2168,7 +2220,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2194,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2220,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2246,7 +2298,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2272,7 +2324,7 @@
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2280,7 +2332,7 @@
         <v>44395</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>101</v>
@@ -2298,7 +2350,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2324,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2350,7 +2402,7 @@
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2376,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2402,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2428,7 +2480,7 @@
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2454,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2480,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -2506,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -2532,7 +2584,7 @@
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -2558,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -2575,7 +2627,7 @@
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F56" t="s">
         <v>92</v>
@@ -2584,7 +2636,7 @@
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -2610,7 +2662,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2636,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -2662,7 +2714,7 @@
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -2688,7 +2740,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -2714,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -2740,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -2766,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -2792,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -2818,7 +2870,7 @@
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -2844,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -2870,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -2896,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -2913,7 +2965,7 @@
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
         <v>92</v>
@@ -2922,7 +2974,7 @@
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -2948,7 +3000,7 @@
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -2974,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -3026,7 +3078,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -3052,7 +3104,7 @@
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -3078,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -3283,7 +3335,7 @@
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -3309,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -3378,7 +3430,7 @@
         <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F87" t="s">
         <v>92</v>
@@ -3387,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -3413,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -3450,7 +3502,7 @@
         <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>41</v>
@@ -3476,7 +3528,7 @@
         <v>153</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
@@ -3511,7 +3563,7 @@
         <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -3537,7 +3589,7 @@
         <v>158</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -3621,7 +3673,7 @@
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -3641,7 +3693,7 @@
         <v>157</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -3667,7 +3719,7 @@
         <v>157</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -3693,13 +3745,13 @@
         <v>70</v>
       </c>
       <c r="F99" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -3719,13 +3771,13 @@
         <v>70</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -3733,10 +3785,10 @@
         <v>44398</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="D101" t="s">
         <v>41</v>
@@ -3745,13 +3797,13 @@
         <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -3762,7 +3814,7 @@
         <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D102" t="s">
         <v>41</v>
@@ -3788,7 +3840,7 @@
         <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
         <v>41</v>
@@ -3814,7 +3866,7 @@
         <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D104" t="s">
         <v>41</v>
@@ -3823,7 +3875,7 @@
         <v>74</v>
       </c>
       <c r="F104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -3840,7 +3892,7 @@
         <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D105" t="s">
         <v>41</v>
@@ -3849,7 +3901,7 @@
         <v>74</v>
       </c>
       <c r="F105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -3866,7 +3918,7 @@
         <v>93</v>
       </c>
       <c r="C106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D106" t="s">
         <v>41</v>
@@ -3892,7 +3944,7 @@
         <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D107" t="s">
         <v>41</v>
@@ -3918,7 +3970,7 @@
         <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D108" t="s">
         <v>41</v>
@@ -3927,7 +3979,7 @@
         <v>94</v>
       </c>
       <c r="F108" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -3944,22 +3996,22 @@
         <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D109" t="s">
         <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="F109" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -3970,7 +4022,7 @@
         <v>144</v>
       </c>
       <c r="C110" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D110" t="s">
         <v>44</v>
@@ -3996,7 +4048,7 @@
         <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D111" t="s">
         <v>44</v>
@@ -4022,7 +4074,7 @@
         <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D112" t="s">
         <v>41</v>
@@ -4037,7 +4089,7 @@
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -4048,7 +4100,7 @@
         <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D113" t="s">
         <v>41</v>
@@ -4074,7 +4126,7 @@
         <v>153</v>
       </c>
       <c r="C114" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D114" t="s">
         <v>41</v>
@@ -4100,7 +4152,7 @@
         <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D115" t="s">
         <v>41</v>
@@ -4109,7 +4161,7 @@
         <v>158</v>
       </c>
       <c r="F115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -4126,7 +4178,7 @@
         <v>138</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D116" t="s">
         <v>41</v>
@@ -4135,7 +4187,7 @@
         <v>158</v>
       </c>
       <c r="F116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
@@ -4152,7 +4204,7 @@
         <v>138</v>
       </c>
       <c r="C117" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D117" t="s">
         <v>41</v>
@@ -4161,7 +4213,7 @@
         <v>158</v>
       </c>
       <c r="F117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -4178,7 +4230,7 @@
         <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D118" t="s">
         <v>41</v>
@@ -4187,7 +4239,7 @@
         <v>158</v>
       </c>
       <c r="F118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -4204,7 +4256,7 @@
         <v>85</v>
       </c>
       <c r="C119" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D119" t="s">
         <v>41</v>
@@ -4230,7 +4282,7 @@
         <v>67</v>
       </c>
       <c r="C120" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D120" t="s">
         <v>41</v>
@@ -4256,7 +4308,7 @@
         <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D121" t="s">
         <v>41</v>
@@ -4282,7 +4334,7 @@
         <v>67</v>
       </c>
       <c r="C122" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D122" t="s">
         <v>41</v>
@@ -4308,7 +4360,7 @@
         <v>108</v>
       </c>
       <c r="C123" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D123" t="s">
         <v>41</v>
@@ -4317,7 +4369,7 @@
         <v>157</v>
       </c>
       <c r="F123" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -4334,7 +4386,7 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D124" t="s">
         <v>41</v>
@@ -4343,7 +4395,7 @@
         <v>157</v>
       </c>
       <c r="F124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -4360,13 +4412,13 @@
         <v>89</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D125" t="s">
         <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F125" t="s">
         <v>92</v>
@@ -4386,16 +4438,16 @@
         <v>90</v>
       </c>
       <c r="C126" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D126" t="s">
         <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
@@ -4412,7 +4464,7 @@
         <v>93</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D127" t="s">
         <v>41</v>
@@ -4438,7 +4490,7 @@
         <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D128" t="s">
         <v>41</v>
@@ -4464,7 +4516,7 @@
         <v>93</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D129" t="s">
         <v>41</v>
@@ -4490,7 +4542,7 @@
         <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D130" t="s">
         <v>41</v>
@@ -4513,10 +4565,10 @@
         <v>44399</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D131" t="s">
         <v>41</v>
@@ -4525,7 +4577,7 @@
         <v>94</v>
       </c>
       <c r="F131" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -4542,7 +4594,7 @@
         <v>160</v>
       </c>
       <c r="C132" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D132" t="s">
         <v>41</v>
@@ -4568,7 +4620,7 @@
         <v>139</v>
       </c>
       <c r="C133" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D133" t="s">
         <v>41</v>
@@ -4594,7 +4646,7 @@
         <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D134" t="s">
         <v>41</v>
@@ -4620,7 +4672,7 @@
         <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
         <v>41</v>
@@ -4635,7 +4687,371 @@
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" t="s">
+        <v>51</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B137" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" t="s">
+        <v>226</v>
+      </c>
+      <c r="D137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E137" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" t="s">
+        <v>114</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B138" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F138" t="s">
+        <v>235</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B139" t="s">
+        <v>236</v>
+      </c>
+      <c r="C139" t="s">
+        <v>228</v>
+      </c>
+      <c r="D139" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" t="s">
+        <v>55</v>
+      </c>
+      <c r="F139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B140" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" t="s">
+        <v>229</v>
+      </c>
+      <c r="D140" t="s">
+        <v>41</v>
+      </c>
+      <c r="E140" t="s">
+        <v>55</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="C141" t="s">
+        <v>230</v>
+      </c>
+      <c r="D141" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" t="s">
+        <v>157</v>
+      </c>
+      <c r="F141" t="s">
+        <v>106</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B142" t="s">
+        <v>85</v>
+      </c>
+      <c r="C142" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" t="s">
+        <v>157</v>
+      </c>
+      <c r="F142" t="s">
+        <v>105</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B143" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" t="s">
+        <v>237</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" t="s">
+        <v>158</v>
+      </c>
+      <c r="F143" t="s">
+        <v>120</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" t="s">
+        <v>158</v>
+      </c>
+      <c r="F144" t="s">
+        <v>120</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B145" t="s">
+        <v>65</v>
+      </c>
+      <c r="C145" t="s">
+        <v>239</v>
+      </c>
+      <c r="D145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
+        <v>94</v>
+      </c>
+      <c r="F145" t="s">
+        <v>94</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" t="s">
+        <v>240</v>
+      </c>
+      <c r="D146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" t="s">
+        <v>74</v>
+      </c>
+      <c r="F146" t="s">
+        <v>81</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" t="s">
+        <v>213</v>
+      </c>
+      <c r="F147" t="s">
+        <v>214</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B148" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" t="s">
+        <v>41</v>
+      </c>
+      <c r="E148" t="s">
+        <v>241</v>
+      </c>
+      <c r="F148" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B149" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" t="s">
+        <v>41</v>
+      </c>
+      <c r="E149" t="s">
+        <v>70</v>
+      </c>
+      <c r="F149" t="s">
+        <v>243</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4682,7 +5098,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4696,7 +5112,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -4710,7 +5126,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -4724,7 +5140,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -4741,7 +5157,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -4758,7 +5174,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -4775,7 +5191,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -4792,7 +5208,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -4809,7 +5225,7 @@
         <v>44398</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -4826,7 +5242,7 @@
         <v>44399</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -4841,6 +5257,9 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44400</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C761111D-D62A-470D-B52D-6596C05FFAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1466584E-E5E2-4116-AF94-8C67D93C2BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="260">
   <si>
     <t>Source</t>
   </si>
@@ -682,36 +682,6 @@
     <t>Phillip Island Close Contacts</t>
   </si>
   <si>
-    <t>#f8f8fb</t>
-  </si>
-  <si>
-    <t>#f1f1f8</t>
-  </si>
-  <si>
-    <t>#eae9f4</t>
-  </si>
-  <si>
-    <t>#e3e2f1</t>
-  </si>
-  <si>
-    <t>#dcdbed</t>
-  </si>
-  <si>
-    <t>#d5d4ea</t>
-  </si>
-  <si>
-    <t>#cecde6</t>
-  </si>
-  <si>
-    <t>#c7c6e3</t>
-  </si>
-  <si>
-    <t>#c0c0df</t>
-  </si>
-  <si>
-    <t>#b9b9dc</t>
-  </si>
-  <si>
     <t>H15</t>
   </si>
   <si>
@@ -773,6 +743,78 @@
   </si>
   <si>
     <t>M87 f</t>
+  </si>
+  <si>
+    <t>#f9f8fc</t>
+  </si>
+  <si>
+    <t>#f2f2f9</t>
+  </si>
+  <si>
+    <t>#ecebf5</t>
+  </si>
+  <si>
+    <t>#e5e5f2</t>
+  </si>
+  <si>
+    <t>#dfdeef</t>
+  </si>
+  <si>
+    <t>#d8d8ec</t>
+  </si>
+  <si>
+    <t>#d2d1e8</t>
+  </si>
+  <si>
+    <t>#cccbe5</t>
+  </si>
+  <si>
+    <t>#c5c5e2</t>
+  </si>
+  <si>
+    <t>#bfbedf</t>
+  </si>
+  <si>
+    <t>#b8b8db</t>
+  </si>
+  <si>
+    <t>M133</t>
+  </si>
+  <si>
+    <t>M134</t>
+  </si>
+  <si>
+    <t>M135</t>
+  </si>
+  <si>
+    <t>M136</t>
+  </si>
+  <si>
+    <t>M137</t>
+  </si>
+  <si>
+    <t>M138</t>
+  </si>
+  <si>
+    <t>M139</t>
+  </si>
+  <si>
+    <t>M140</t>
+  </si>
+  <si>
+    <t>M141</t>
+  </si>
+  <si>
+    <t>M142</t>
+  </si>
+  <si>
+    <t>M144</t>
+  </si>
+  <si>
+    <t>Isola Apartments, Hawthorn</t>
+  </si>
+  <si>
+    <t>M143 10s</t>
   </si>
 </sst>
 </file>
@@ -842,8 +884,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H149" totalsRowShown="0">
-  <autoFilter ref="A1:H149" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H161" totalsRowShown="0">
+  <autoFilter ref="A1:H161" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1169,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2575,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F54" t="s">
         <v>114</v>
@@ -2601,7 +2643,7 @@
         <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
         <v>114</v>
@@ -2991,7 +3033,7 @@
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F70" t="s">
         <v>114</v>
@@ -3771,7 +3813,7 @@
         <v>70</v>
       </c>
       <c r="F100" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -3788,7 +3830,7 @@
         <v>172</v>
       </c>
       <c r="C101" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D101" t="s">
         <v>41</v>
@@ -3797,7 +3839,7 @@
         <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
@@ -3820,7 +3862,7 @@
         <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F102" t="s">
         <v>114</v>
@@ -3846,7 +3888,7 @@
         <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F103" t="s">
         <v>114</v>
@@ -4002,10 +4044,10 @@
         <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F109" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
@@ -4672,13 +4714,13 @@
         <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D135" t="s">
         <v>41</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F135" t="s">
         <v>114</v>
@@ -4698,7 +4740,7 @@
         <v>50</v>
       </c>
       <c r="C136" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D136" t="s">
         <v>44</v>
@@ -4724,13 +4766,13 @@
         <v>67</v>
       </c>
       <c r="C137" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D137" t="s">
         <v>41</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F137" t="s">
         <v>114</v>
@@ -4750,16 +4792,16 @@
         <v>113</v>
       </c>
       <c r="C138" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D138" t="s">
         <v>41</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="F138" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -4773,10 +4815,10 @@
         <v>44400</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C139" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D139" t="s">
         <v>41</v>
@@ -4799,10 +4841,10 @@
         <v>44400</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D140" t="s">
         <v>41</v>
@@ -4828,7 +4870,7 @@
         <v>108</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D141" t="s">
         <v>41</v>
@@ -4837,7 +4879,7 @@
         <v>157</v>
       </c>
       <c r="F141" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
@@ -4854,7 +4896,7 @@
         <v>85</v>
       </c>
       <c r="C142" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D142" t="s">
         <v>41</v>
@@ -4880,7 +4922,7 @@
         <v>190</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D143" t="s">
         <v>41</v>
@@ -4906,7 +4948,7 @@
         <v>190</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D144" t="s">
         <v>41</v>
@@ -4932,7 +4974,7 @@
         <v>65</v>
       </c>
       <c r="C145" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D145" t="s">
         <v>41</v>
@@ -4958,7 +5000,7 @@
         <v>80</v>
       </c>
       <c r="C146" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D146" t="s">
         <v>41</v>
@@ -4984,7 +5026,7 @@
         <v>90</v>
       </c>
       <c r="C147" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D147" t="s">
         <v>41</v>
@@ -5010,13 +5052,13 @@
         <v>180</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D148" t="s">
         <v>41</v>
       </c>
       <c r="E148" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F148" t="s">
         <v>8</v>
@@ -5036,7 +5078,7 @@
         <v>134</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D149" t="s">
         <v>41</v>
@@ -5045,12 +5087,324 @@
         <v>70</v>
       </c>
       <c r="F149" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
       </c>
       <c r="H149" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B150" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" t="s">
+        <v>247</v>
+      </c>
+      <c r="D150" t="s">
+        <v>41</v>
+      </c>
+      <c r="E150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F150" t="s">
+        <v>225</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A151" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B151" t="s">
+        <v>226</v>
+      </c>
+      <c r="C151" t="s">
+        <v>248</v>
+      </c>
+      <c r="D151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" t="s">
+        <v>114</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A152" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" t="s">
+        <v>114</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A153" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B153" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" t="s">
+        <v>41</v>
+      </c>
+      <c r="E153" t="s">
+        <v>114</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A154" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154" t="s">
+        <v>251</v>
+      </c>
+      <c r="D154" t="s">
+        <v>41</v>
+      </c>
+      <c r="E154" t="s">
+        <v>114</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A155" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B155" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" t="s">
+        <v>252</v>
+      </c>
+      <c r="D155" t="s">
+        <v>41</v>
+      </c>
+      <c r="E155" t="s">
+        <v>157</v>
+      </c>
+      <c r="F155" t="s">
+        <v>185</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A156" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B156" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156" t="s">
+        <v>253</v>
+      </c>
+      <c r="D156" t="s">
+        <v>41</v>
+      </c>
+      <c r="E156" t="s">
+        <v>157</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A157" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C157" t="s">
+        <v>254</v>
+      </c>
+      <c r="D157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B158" t="s">
+        <v>255</v>
+      </c>
+      <c r="C158" t="s">
+        <v>255</v>
+      </c>
+      <c r="D158" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" t="s">
+        <v>258</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A159" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B159" t="s">
+        <v>255</v>
+      </c>
+      <c r="C159" t="s">
+        <v>256</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159" t="s">
+        <v>258</v>
+      </c>
+      <c r="F159" t="s">
+        <v>258</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A160" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B160" t="s">
+        <v>79</v>
+      </c>
+      <c r="C160" t="s">
+        <v>259</v>
+      </c>
+      <c r="D160" t="s">
+        <v>41</v>
+      </c>
+      <c r="E160" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160" t="s">
+        <v>81</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A161" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B161" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" t="s">
+        <v>257</v>
+      </c>
+      <c r="D161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" t="s">
+        <v>70</v>
+      </c>
+      <c r="F161" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5098,7 +5452,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -5112,7 +5466,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -5126,7 +5480,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -5140,7 +5494,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -5157,7 +5511,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -5174,7 +5528,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -5191,7 +5545,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -5208,7 +5562,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -5225,7 +5579,7 @@
         <v>44398</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -5242,7 +5596,7 @@
         <v>44399</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -5259,7 +5613,7 @@
         <v>44400</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -5274,6 +5628,9 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44401</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1466584E-E5E2-4116-AF94-8C67D93C2BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53043FDD-4C1B-4286-A57E-167974661184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="276">
   <si>
     <t>Source</t>
   </si>
@@ -745,36 +745,6 @@
     <t>M87 f</t>
   </si>
   <si>
-    <t>#f9f8fc</t>
-  </si>
-  <si>
-    <t>#f2f2f9</t>
-  </si>
-  <si>
-    <t>#ecebf5</t>
-  </si>
-  <si>
-    <t>#e5e5f2</t>
-  </si>
-  <si>
-    <t>#dfdeef</t>
-  </si>
-  <si>
-    <t>#d8d8ec</t>
-  </si>
-  <si>
-    <t>#d2d1e8</t>
-  </si>
-  <si>
-    <t>#cccbe5</t>
-  </si>
-  <si>
-    <t>#c5c5e2</t>
-  </si>
-  <si>
-    <t>#bfbedf</t>
-  </si>
-  <si>
     <t>#b8b8db</t>
   </si>
   <si>
@@ -815,6 +785,84 @@
   </si>
   <si>
     <t>M143 10s</t>
+  </si>
+  <si>
+    <t>#f9f9fc</t>
+  </si>
+  <si>
+    <t>#f3f3f9</t>
+  </si>
+  <si>
+    <t>#ededf6</t>
+  </si>
+  <si>
+    <t>#e7e7f3</t>
+  </si>
+  <si>
+    <t>#e1e1f0</t>
+  </si>
+  <si>
+    <t>#dbdbed</t>
+  </si>
+  <si>
+    <t>#d5d5ea</t>
+  </si>
+  <si>
+    <t>#d0cfe7</t>
+  </si>
+  <si>
+    <t>#cac9e4</t>
+  </si>
+  <si>
+    <t>#c4c3e1</t>
+  </si>
+  <si>
+    <t>#bebdde</t>
+  </si>
+  <si>
+    <t>M145</t>
+  </si>
+  <si>
+    <t>M146</t>
+  </si>
+  <si>
+    <t>M147</t>
+  </si>
+  <si>
+    <t>M148</t>
+  </si>
+  <si>
+    <t>M149</t>
+  </si>
+  <si>
+    <t>M150</t>
+  </si>
+  <si>
+    <t>M151</t>
+  </si>
+  <si>
+    <t>M152</t>
+  </si>
+  <si>
+    <t>M153</t>
+  </si>
+  <si>
+    <t>M154</t>
+  </si>
+  <si>
+    <t>M155</t>
+  </si>
+  <si>
+    <t>Trinity Grammar Parent</t>
+  </si>
+  <si>
+    <t>Bacchus Marsh Grammar Close Contacts</t>
+  </si>
+  <si>
+    <t>West Gate Tunnel Close Contacts</t>
+  </si>
+  <si>
+    <t>Young &amp; Jacksons Close Contacts</t>
   </si>
 </sst>
 </file>
@@ -884,8 +932,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H161" totalsRowShown="0">
-  <autoFilter ref="A1:H161" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H172" totalsRowShown="0">
+  <autoFilter ref="A1:H172" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1211,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4879,7 +4927,7 @@
         <v>157</v>
       </c>
       <c r="F141" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
@@ -5104,7 +5152,7 @@
         <v>113</v>
       </c>
       <c r="C150" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D150" t="s">
         <v>41</v>
@@ -5130,7 +5178,7 @@
         <v>226</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D151" t="s">
         <v>41</v>
@@ -5156,7 +5204,7 @@
         <v>174</v>
       </c>
       <c r="C152" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D152" t="s">
         <v>41</v>
@@ -5182,7 +5230,7 @@
         <v>216</v>
       </c>
       <c r="C153" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D153" t="s">
         <v>41</v>
@@ -5208,7 +5256,7 @@
         <v>86</v>
       </c>
       <c r="C154" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D154" t="s">
         <v>41</v>
@@ -5234,7 +5282,7 @@
         <v>146</v>
       </c>
       <c r="C155" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D155" t="s">
         <v>41</v>
@@ -5243,7 +5291,7 @@
         <v>157</v>
       </c>
       <c r="F155" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
@@ -5260,7 +5308,7 @@
         <v>166</v>
       </c>
       <c r="C156" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D156" t="s">
         <v>41</v>
@@ -5286,7 +5334,7 @@
         <v>166</v>
       </c>
       <c r="C157" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D157" t="s">
         <v>41</v>
@@ -5309,19 +5357,19 @@
         <v>44401</v>
       </c>
       <c r="B158" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C158" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D158" t="s">
         <v>41</v>
       </c>
       <c r="E158" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F158" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
@@ -5335,19 +5383,19 @@
         <v>44401</v>
       </c>
       <c r="B159" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D159" t="s">
         <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F159" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G159" t="s">
         <v>11</v>
@@ -5364,7 +5412,7 @@
         <v>79</v>
       </c>
       <c r="C160" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D160" t="s">
         <v>41</v>
@@ -5390,7 +5438,7 @@
         <v>172</v>
       </c>
       <c r="C161" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D161" t="s">
         <v>41</v>
@@ -5405,6 +5453,292 @@
         <v>11</v>
       </c>
       <c r="H161" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A162" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B162" t="s">
+        <v>146</v>
+      </c>
+      <c r="C162" t="s">
+        <v>261</v>
+      </c>
+      <c r="D162" t="s">
+        <v>41</v>
+      </c>
+      <c r="E162" t="s">
+        <v>157</v>
+      </c>
+      <c r="F162" t="s">
+        <v>106</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A163" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B163" t="s">
+        <v>146</v>
+      </c>
+      <c r="C163" t="s">
+        <v>262</v>
+      </c>
+      <c r="D163" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" t="s">
+        <v>157</v>
+      </c>
+      <c r="F163" t="s">
+        <v>106</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A164" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B164" t="s">
+        <v>146</v>
+      </c>
+      <c r="C164" t="s">
+        <v>263</v>
+      </c>
+      <c r="D164" t="s">
+        <v>41</v>
+      </c>
+      <c r="E164" t="s">
+        <v>157</v>
+      </c>
+      <c r="F164" t="s">
+        <v>106</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A165" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B165" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" t="s">
+        <v>264</v>
+      </c>
+      <c r="D165" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" t="s">
+        <v>157</v>
+      </c>
+      <c r="F165" t="s">
+        <v>185</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A166" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B166" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" t="s">
+        <v>265</v>
+      </c>
+      <c r="D166" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" t="s">
+        <v>158</v>
+      </c>
+      <c r="F166" t="s">
+        <v>120</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A167" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B167" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" t="s">
+        <v>266</v>
+      </c>
+      <c r="D167" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" t="s">
+        <v>158</v>
+      </c>
+      <c r="F167" t="s">
+        <v>272</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A168" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B168" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" t="s">
+        <v>41</v>
+      </c>
+      <c r="E168" t="s">
+        <v>158</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A169" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B169" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" t="s">
+        <v>268</v>
+      </c>
+      <c r="D169" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169" t="s">
+        <v>74</v>
+      </c>
+      <c r="F169" t="s">
+        <v>273</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B170" t="s">
+        <v>180</v>
+      </c>
+      <c r="C170" t="s">
+        <v>269</v>
+      </c>
+      <c r="D170" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" t="s">
+        <v>231</v>
+      </c>
+      <c r="F170" t="s">
+        <v>274</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A171" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B171" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" t="s">
+        <v>270</v>
+      </c>
+      <c r="D171" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" t="s">
+        <v>70</v>
+      </c>
+      <c r="F171" t="s">
+        <v>275</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B172" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" t="s">
+        <v>271</v>
+      </c>
+      <c r="D172" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" t="s">
+        <v>114</v>
+      </c>
+      <c r="F172" t="s">
+        <v>225</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5428,6 +5762,7 @@
   <cols>
     <col min="2" max="2" width="12.53125" customWidth="1"/>
     <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -5452,7 +5787,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -5466,7 +5801,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -5480,7 +5815,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -5494,7 +5829,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -5511,7 +5846,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -5528,7 +5863,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -5545,7 +5880,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -5562,7 +5897,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -5579,7 +5914,7 @@
         <v>44398</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -5596,7 +5931,7 @@
         <v>44399</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -5613,7 +5948,7 @@
         <v>44400</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -5630,7 +5965,7 @@
         <v>44401</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -5645,6 +5980,9 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44402</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53043FDD-4C1B-4286-A57E-167974661184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E019D17-D7D4-4D0F-8C0B-7F2ED4B29FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="288">
   <si>
     <t>Source</t>
   </si>
@@ -298,9 +298,6 @@
     <t>M29</t>
   </si>
   <si>
-    <t>M30</t>
-  </si>
-  <si>
     <t>11th - 14th July</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>M60</t>
   </si>
   <si>
-    <t>M61</t>
-  </si>
-  <si>
     <t>Mildura</t>
   </si>
   <si>
@@ -616,9 +610,6 @@
     <t>M98</t>
   </si>
   <si>
-    <t>M99</t>
-  </si>
-  <si>
     <t>M100</t>
   </si>
   <si>
@@ -745,9 +736,6 @@
     <t>M87 f</t>
   </si>
   <si>
-    <t>#b8b8db</t>
-  </si>
-  <si>
     <t>M133</t>
   </si>
   <si>
@@ -790,36 +778,6 @@
     <t>#f9f9fc</t>
   </si>
   <si>
-    <t>#f3f3f9</t>
-  </si>
-  <si>
-    <t>#ededf6</t>
-  </si>
-  <si>
-    <t>#e7e7f3</t>
-  </si>
-  <si>
-    <t>#e1e1f0</t>
-  </si>
-  <si>
-    <t>#dbdbed</t>
-  </si>
-  <si>
-    <t>#d5d5ea</t>
-  </si>
-  <si>
-    <t>#d0cfe7</t>
-  </si>
-  <si>
-    <t>#cac9e4</t>
-  </si>
-  <si>
-    <t>#c4c3e1</t>
-  </si>
-  <si>
-    <t>#bebdde</t>
-  </si>
-  <si>
     <t>M145</t>
   </si>
   <si>
@@ -863,6 +821,84 @@
   </si>
   <si>
     <t>Young &amp; Jacksons Close Contacts</t>
+  </si>
+  <si>
+    <t>#f4f4f9</t>
+  </si>
+  <si>
+    <t>#eeeef7</t>
+  </si>
+  <si>
+    <t>#e9e8f4</t>
+  </si>
+  <si>
+    <t>#e3e3f1</t>
+  </si>
+  <si>
+    <t>#deddee</t>
+  </si>
+  <si>
+    <t>#d8d8ec</t>
+  </si>
+  <si>
+    <t>#d3d2e9</t>
+  </si>
+  <si>
+    <t>#cdcde6</t>
+  </si>
+  <si>
+    <t>#c8c7e3</t>
+  </si>
+  <si>
+    <t>#c2c2e0</t>
+  </si>
+  <si>
+    <t>#bdbdde</t>
+  </si>
+  <si>
+    <t>#b7b7db</t>
+  </si>
+  <si>
+    <t>M156</t>
+  </si>
+  <si>
+    <t>M157</t>
+  </si>
+  <si>
+    <t>M158</t>
+  </si>
+  <si>
+    <t>M159</t>
+  </si>
+  <si>
+    <t>M160</t>
+  </si>
+  <si>
+    <t>M161</t>
+  </si>
+  <si>
+    <t>M162</t>
+  </si>
+  <si>
+    <t>M163</t>
+  </si>
+  <si>
+    <t>M164</t>
+  </si>
+  <si>
+    <t>H16</t>
+  </si>
+  <si>
+    <t>H17</t>
+  </si>
+  <si>
+    <t>M61 m10s</t>
+  </si>
+  <si>
+    <t>Cabinet Makers Close Contacts</t>
+  </si>
+  <si>
+    <t>M30 m</t>
   </si>
 </sst>
 </file>
@@ -932,8 +968,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H172" totalsRowShown="0">
-  <autoFilter ref="A1:H172" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H182" totalsRowShown="0">
+  <autoFilter ref="A1:H182" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1259,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="H172" sqref="H172"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1310,7 +1346,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -1336,7 +1372,7 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -1377,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1388,7 +1424,7 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1429,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1455,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1481,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1507,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1533,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1559,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1585,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1611,7 +1647,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1637,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1663,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1689,7 +1725,7 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1715,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1726,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1741,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1767,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -1790,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -1816,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -1842,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1868,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
@@ -1894,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -1920,7 +1956,7 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -1946,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -1972,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -1998,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2009,7 +2045,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -2024,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
@@ -2041,16 +2077,16 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -2067,16 +2103,16 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
@@ -2096,13 +2132,13 @@
         <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -2119,16 +2155,16 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -2145,16 +2181,16 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -2165,22 +2201,22 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -2191,7 +2227,7 @@
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
@@ -2206,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -2214,10 +2250,10 @@
         <v>44394</v>
       </c>
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
       </c>
       <c r="D37" t="s">
         <v>41</v>
@@ -2226,13 +2262,13 @@
         <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -2240,10 +2276,10 @@
         <v>44394</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>41</v>
@@ -2252,13 +2288,13 @@
         <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -2269,7 +2305,7 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -2278,13 +2314,13 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2295,7 +2331,7 @@
         <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>41</v>
@@ -2310,7 +2346,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -2321,7 +2357,7 @@
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
         <v>41</v>
@@ -2336,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -2347,7 +2383,7 @@
         <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
         <v>41</v>
@@ -2362,7 +2398,7 @@
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -2373,7 +2409,7 @@
         <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -2388,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -2396,10 +2432,10 @@
         <v>44394</v>
       </c>
       <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" t="s">
-        <v>99</v>
       </c>
       <c r="D44" t="s">
         <v>41</v>
@@ -2408,13 +2444,13 @@
         <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -2425,7 +2461,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
@@ -2440,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -2451,22 +2487,22 @@
         <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -2477,22 +2513,22 @@
         <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -2503,22 +2539,22 @@
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -2529,22 +2565,22 @@
         <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
         <v>41</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -2555,22 +2591,22 @@
         <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
         <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -2581,22 +2617,22 @@
         <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
         <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -2607,22 +2643,22 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
         <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -2633,22 +2669,22 @@
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -2659,22 +2695,22 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -2685,22 +2721,22 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
         <v>113</v>
       </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" t="s">
-        <v>114</v>
-      </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -2708,25 +2744,25 @@
         <v>44395</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -2737,7 +2773,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
         <v>41</v>
@@ -2752,7 +2788,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -2763,22 +2799,22 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -2789,22 +2825,22 @@
         <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -2815,7 +2851,7 @@
         <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
         <v>41</v>
@@ -2830,7 +2866,7 @@
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -2841,7 +2877,7 @@
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
         <v>41</v>
@@ -2850,13 +2886,13 @@
         <v>55</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -2864,16 +2900,16 @@
         <v>44396</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
         <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
@@ -2882,7 +2918,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -2893,22 +2929,22 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -2919,22 +2955,22 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -2945,22 +2981,22 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
         <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -2971,22 +3007,22 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -2997,22 +3033,22 @@
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D67" t="s">
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -3023,22 +3059,22 @@
         <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -3046,25 +3082,25 @@
         <v>44396</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
         <v>41</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -3075,22 +3111,22 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" t="s">
         <v>41</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -3101,7 +3137,7 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
         <v>41</v>
@@ -3116,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -3127,7 +3163,7 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -3153,7 +3189,7 @@
         <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D73" t="s">
         <v>41</v>
@@ -3162,13 +3198,13 @@
         <v>55</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -3176,25 +3212,25 @@
         <v>44397</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
         <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -3205,7 +3241,7 @@
         <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
         <v>41</v>
@@ -3220,7 +3256,7 @@
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -3231,16 +3267,16 @@
         <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D76" t="s">
         <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -3257,16 +3293,16 @@
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D77" t="s">
         <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -3283,16 +3319,16 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
         <v>41</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -3306,19 +3342,19 @@
         <v>44397</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="C79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D79" t="s">
         <v>41</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -3332,19 +3368,19 @@
         <v>44397</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D80" t="s">
         <v>41</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -3361,13 +3397,13 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
         <v>41</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
         <v>8</v>
@@ -3387,13 +3423,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
         <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -3410,22 +3446,22 @@
         <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
         <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -3433,25 +3469,25 @@
         <v>44397</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -3459,10 +3495,10 @@
         <v>44397</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D85" t="s">
         <v>41</v>
@@ -3485,10 +3521,10 @@
         <v>44397</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D86" t="s">
         <v>41</v>
@@ -3511,25 +3547,25 @@
         <v>44397</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D87" t="s">
         <v>41</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -3537,16 +3573,16 @@
         <v>44398</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
         <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" t="s">
         <v>8</v>
@@ -3555,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -3566,16 +3602,16 @@
         <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D89" t="s">
         <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -3589,19 +3625,19 @@
         <v>44398</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D90" t="s">
         <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -3615,19 +3651,19 @@
         <v>44398</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
         <v>41</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -3641,19 +3677,19 @@
         <v>44398</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D92" t="s">
         <v>41</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -3667,19 +3703,19 @@
         <v>44398</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D93" t="s">
         <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -3696,16 +3732,16 @@
         <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D94" t="s">
         <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
@@ -3722,16 +3758,16 @@
         <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D95" t="s">
         <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
@@ -3745,25 +3781,25 @@
         <v>44398</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D96" t="s">
         <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -3771,19 +3807,19 @@
         <v>44398</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D97" t="s">
         <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -3797,19 +3833,19 @@
         <v>44398</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s">
         <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -3823,10 +3859,10 @@
         <v>44398</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D99" t="s">
         <v>41</v>
@@ -3841,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -3849,10 +3885,10 @@
         <v>44398</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
         <v>41</v>
@@ -3861,13 +3897,13 @@
         <v>70</v>
       </c>
       <c r="F100" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -3875,10 +3911,10 @@
         <v>44398</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D101" t="s">
         <v>41</v>
@@ -3887,13 +3923,13 @@
         <v>70</v>
       </c>
       <c r="F101" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -3904,16 +3940,16 @@
         <v>67</v>
       </c>
       <c r="C102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D102" t="s">
         <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -3930,16 +3966,16 @@
         <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D103" t="s">
         <v>41</v>
       </c>
       <c r="E103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
@@ -3956,7 +3992,7 @@
         <v>73</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
         <v>41</v>
@@ -3965,7 +4001,7 @@
         <v>74</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -3982,7 +4018,7 @@
         <v>73</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D105" t="s">
         <v>41</v>
@@ -3991,7 +4027,7 @@
         <v>74</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -4005,19 +4041,19 @@
         <v>44398</v>
       </c>
       <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" t="s">
         <v>93</v>
       </c>
-      <c r="C106" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" t="s">
-        <v>41</v>
-      </c>
-      <c r="E106" t="s">
-        <v>94</v>
-      </c>
       <c r="F106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
@@ -4031,19 +4067,19 @@
         <v>44398</v>
       </c>
       <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" t="s">
         <v>93</v>
       </c>
-      <c r="C107" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" t="s">
-        <v>41</v>
-      </c>
-      <c r="E107" t="s">
-        <v>94</v>
-      </c>
       <c r="F107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
@@ -4057,19 +4093,19 @@
         <v>44398</v>
       </c>
       <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>177</v>
+      </c>
+      <c r="D108" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" t="s">
         <v>93</v>
       </c>
-      <c r="C108" t="s">
-        <v>179</v>
-      </c>
-      <c r="D108" t="s">
-        <v>41</v>
-      </c>
-      <c r="E108" t="s">
-        <v>94</v>
-      </c>
       <c r="F108" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -4086,22 +4122,22 @@
         <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D109" t="s">
         <v>41</v>
       </c>
       <c r="E109" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F109" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -4109,19 +4145,19 @@
         <v>44399</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D110" t="s">
         <v>44</v>
       </c>
       <c r="E110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -4135,19 +4171,19 @@
         <v>44399</v>
       </c>
       <c r="B111" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D111" t="s">
         <v>44</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
@@ -4164,22 +4200,22 @@
         <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D112" t="s">
         <v>41</v>
       </c>
       <c r="E112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -4190,16 +4226,16 @@
         <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D113" t="s">
         <v>41</v>
       </c>
       <c r="E113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -4213,19 +4249,19 @@
         <v>44399</v>
       </c>
       <c r="B114" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D114" t="s">
         <v>41</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
@@ -4239,19 +4275,19 @@
         <v>44399</v>
       </c>
       <c r="B115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C115" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D115" t="s">
         <v>41</v>
       </c>
       <c r="E115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -4265,19 +4301,19 @@
         <v>44399</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C116" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D116" t="s">
         <v>41</v>
       </c>
       <c r="E116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
@@ -4291,19 +4327,19 @@
         <v>44399</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D117" t="s">
         <v>41</v>
       </c>
       <c r="E117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -4317,19 +4353,19 @@
         <v>44399</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D118" t="s">
         <v>41</v>
       </c>
       <c r="E118" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F118" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
@@ -4343,16 +4379,16 @@
         <v>44399</v>
       </c>
       <c r="B119" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D119" t="s">
         <v>41</v>
       </c>
       <c r="E119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F119" t="s">
         <v>105</v>
@@ -4372,16 +4408,16 @@
         <v>67</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D120" t="s">
         <v>41</v>
       </c>
       <c r="E120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -4398,16 +4434,16 @@
         <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D121" t="s">
         <v>41</v>
       </c>
       <c r="E121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -4421,19 +4457,19 @@
         <v>44399</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D122" t="s">
         <v>41</v>
       </c>
       <c r="E122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -4447,19 +4483,19 @@
         <v>44399</v>
       </c>
       <c r="B123" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D123" t="s">
         <v>41</v>
       </c>
       <c r="E123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F123" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
@@ -4473,19 +4509,19 @@
         <v>44399</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C124" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D124" t="s">
         <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="F124" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -4502,16 +4538,16 @@
         <v>89</v>
       </c>
       <c r="C125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D125" t="s">
         <v>41</v>
       </c>
       <c r="E125" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F125" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
@@ -4525,19 +4561,19 @@
         <v>44399</v>
       </c>
       <c r="B126" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C126" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D126" t="s">
         <v>41</v>
       </c>
       <c r="E126" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="F126" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
@@ -4551,19 +4587,19 @@
         <v>44399</v>
       </c>
       <c r="B127" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" t="s">
+        <v>203</v>
+      </c>
+      <c r="D127" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" t="s">
         <v>93</v>
       </c>
-      <c r="C127" t="s">
-        <v>205</v>
-      </c>
-      <c r="D127" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" t="s">
-        <v>94</v>
-      </c>
       <c r="F127" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -4577,19 +4613,19 @@
         <v>44399</v>
       </c>
       <c r="B128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" t="s">
         <v>93</v>
       </c>
-      <c r="C128" t="s">
-        <v>206</v>
-      </c>
-      <c r="D128" t="s">
-        <v>41</v>
-      </c>
-      <c r="E128" t="s">
-        <v>94</v>
-      </c>
       <c r="F128" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -4603,19 +4639,19 @@
         <v>44399</v>
       </c>
       <c r="B129" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" t="s">
         <v>93</v>
       </c>
-      <c r="C129" t="s">
-        <v>207</v>
-      </c>
-      <c r="D129" t="s">
-        <v>41</v>
-      </c>
-      <c r="E129" t="s">
-        <v>94</v>
-      </c>
       <c r="F129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -4629,19 +4665,19 @@
         <v>44399</v>
       </c>
       <c r="B130" t="s">
+        <v>177</v>
+      </c>
+      <c r="C130" t="s">
+        <v>206</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" t="s">
         <v>93</v>
       </c>
-      <c r="C130" t="s">
-        <v>208</v>
-      </c>
-      <c r="D130" t="s">
-        <v>41</v>
-      </c>
-      <c r="E130" t="s">
-        <v>94</v>
-      </c>
       <c r="F130" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -4655,19 +4691,19 @@
         <v>44399</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C131" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D131" t="s">
         <v>41</v>
       </c>
       <c r="E131" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F131" t="s">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -4681,16 +4717,16 @@
         <v>44399</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D132" t="s">
         <v>41</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="F132" t="s">
         <v>8</v>
@@ -4707,16 +4743,16 @@
         <v>44399</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D133" t="s">
         <v>41</v>
       </c>
       <c r="E133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F133" t="s">
         <v>8</v>
@@ -4733,51 +4769,51 @@
         <v>44399</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="C134" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D134" t="s">
         <v>41</v>
       </c>
       <c r="E134" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F134" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
       </c>
       <c r="H134" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D135" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E135" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F135" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
       <c r="H135" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
@@ -4785,19 +4821,19 @@
         <v>44400</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C136" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D136" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E136" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F136" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -4811,19 +4847,19 @@
         <v>44400</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D137" t="s">
         <v>41</v>
       </c>
       <c r="E137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F137" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -4837,25 +4873,25 @@
         <v>44400</v>
       </c>
       <c r="B138" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="C138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D138" t="s">
         <v>41</v>
       </c>
       <c r="E138" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="F138" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
       </c>
       <c r="H138" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
@@ -4863,10 +4899,10 @@
         <v>44400</v>
       </c>
       <c r="B139" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D139" t="s">
         <v>41</v>
@@ -4881,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
@@ -4889,25 +4925,25 @@
         <v>44400</v>
       </c>
       <c r="B140" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="C140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D140" t="s">
         <v>41</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F140" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
@@ -4915,25 +4951,25 @@
         <v>44400</v>
       </c>
       <c r="B141" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C141" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D141" t="s">
         <v>41</v>
       </c>
       <c r="E141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F141" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
@@ -4941,25 +4977,25 @@
         <v>44400</v>
       </c>
       <c r="B142" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D142" t="s">
         <v>41</v>
       </c>
       <c r="E142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F142" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
@@ -4967,19 +5003,19 @@
         <v>44400</v>
       </c>
       <c r="B143" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C143" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D143" t="s">
         <v>41</v>
       </c>
       <c r="E143" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F143" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G143" t="s">
         <v>11</v>
@@ -4993,19 +5029,19 @@
         <v>44400</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D144" t="s">
         <v>41</v>
       </c>
       <c r="E144" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="F144" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="G144" t="s">
         <v>11</v>
@@ -5019,19 +5055,19 @@
         <v>44400</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C145" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D145" t="s">
         <v>41</v>
       </c>
       <c r="E145" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F145" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G145" t="s">
         <v>11</v>
@@ -5045,19 +5081,19 @@
         <v>44400</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D146" t="s">
         <v>41</v>
       </c>
       <c r="E146" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="F146" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="G146" t="s">
         <v>11</v>
@@ -5071,19 +5107,19 @@
         <v>44400</v>
       </c>
       <c r="B147" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D147" t="s">
         <v>41</v>
       </c>
       <c r="E147" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F147" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="G147" t="s">
         <v>11</v>
@@ -5097,19 +5133,19 @@
         <v>44400</v>
       </c>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D148" t="s">
         <v>41</v>
       </c>
       <c r="E148" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="F148" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="G148" t="s">
         <v>11</v>
@@ -5120,22 +5156,22 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C149" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D149" t="s">
         <v>41</v>
       </c>
       <c r="E149" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F149" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G149" t="s">
         <v>11</v>
@@ -5149,19 +5185,19 @@
         <v>44401</v>
       </c>
       <c r="B150" t="s">
+        <v>223</v>
+      </c>
+      <c r="C150" t="s">
+        <v>234</v>
+      </c>
+      <c r="D150" t="s">
+        <v>41</v>
+      </c>
+      <c r="E150" t="s">
         <v>113</v>
       </c>
-      <c r="C150" t="s">
-        <v>237</v>
-      </c>
-      <c r="D150" t="s">
-        <v>41</v>
-      </c>
-      <c r="E150" t="s">
-        <v>114</v>
-      </c>
       <c r="F150" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="G150" t="s">
         <v>11</v>
@@ -5175,16 +5211,16 @@
         <v>44401</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="C151" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D151" t="s">
         <v>41</v>
       </c>
       <c r="E151" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F151" t="s">
         <v>8</v>
@@ -5201,16 +5237,16 @@
         <v>44401</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
         <v>41</v>
       </c>
       <c r="E152" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F152" t="s">
         <v>8</v>
@@ -5227,16 +5263,16 @@
         <v>44401</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="C153" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D153" t="s">
         <v>41</v>
       </c>
       <c r="E153" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F153" t="s">
         <v>8</v>
@@ -5253,19 +5289,19 @@
         <v>44401</v>
       </c>
       <c r="B154" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C154" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D154" t="s">
         <v>41</v>
       </c>
       <c r="E154" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="F154" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="G154" t="s">
         <v>11</v>
@@ -5279,19 +5315,19 @@
         <v>44401</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D155" t="s">
         <v>41</v>
       </c>
       <c r="E155" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F155" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="G155" t="s">
         <v>11</v>
@@ -5305,16 +5341,16 @@
         <v>44401</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D156" t="s">
         <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F156" t="s">
         <v>8</v>
@@ -5331,25 +5367,25 @@
         <v>44401</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="C157" t="s">
+        <v>241</v>
+      </c>
+      <c r="D157" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" t="s">
         <v>244</v>
       </c>
-      <c r="D157" t="s">
-        <v>41</v>
-      </c>
-      <c r="E157" t="s">
-        <v>157</v>
-      </c>
       <c r="F157" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
       <c r="G157" t="s">
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
@@ -5357,25 +5393,25 @@
         <v>44401</v>
       </c>
       <c r="B158" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C158" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D158" t="s">
         <v>41</v>
       </c>
       <c r="E158" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F158" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G158" t="s">
         <v>11</v>
       </c>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
@@ -5383,25 +5419,25 @@
         <v>44401</v>
       </c>
       <c r="B159" t="s">
+        <v>79</v>
+      </c>
+      <c r="C159" t="s">
         <v>245</v>
       </c>
-      <c r="C159" t="s">
-        <v>246</v>
-      </c>
       <c r="D159" t="s">
         <v>41</v>
       </c>
       <c r="E159" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="F159" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="G159" t="s">
         <v>11</v>
       </c>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
@@ -5409,19 +5445,19 @@
         <v>44401</v>
       </c>
       <c r="B160" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D160" t="s">
         <v>41</v>
       </c>
       <c r="E160" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F160" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="G160" t="s">
         <v>11</v>
@@ -5432,10 +5468,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="C161" t="s">
         <v>247</v>
@@ -5444,10 +5480,10 @@
         <v>41</v>
       </c>
       <c r="E161" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F161" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="G161" t="s">
         <v>11</v>
@@ -5461,19 +5497,19 @@
         <v>44402</v>
       </c>
       <c r="B162" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D162" t="s">
         <v>41</v>
       </c>
       <c r="E162" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F162" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G162" t="s">
         <v>11</v>
@@ -5487,19 +5523,19 @@
         <v>44402</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C163" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D163" t="s">
         <v>41</v>
       </c>
       <c r="E163" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F163" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G163" t="s">
         <v>11</v>
@@ -5513,19 +5549,19 @@
         <v>44402</v>
       </c>
       <c r="B164" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C164" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D164" t="s">
         <v>41</v>
       </c>
       <c r="E164" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F164" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G164" t="s">
         <v>11</v>
@@ -5539,19 +5575,19 @@
         <v>44402</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D165" t="s">
         <v>41</v>
       </c>
       <c r="E165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F165" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="G165" t="s">
         <v>11</v>
@@ -5565,19 +5601,19 @@
         <v>44402</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="C166" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D166" t="s">
         <v>41</v>
       </c>
       <c r="E166" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F166" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="G166" t="s">
         <v>11</v>
@@ -5591,19 +5627,19 @@
         <v>44402</v>
       </c>
       <c r="B167" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C167" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D167" t="s">
         <v>41</v>
       </c>
       <c r="E167" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F167" t="s">
-        <v>272</v>
+        <v>8</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
@@ -5617,19 +5653,19 @@
         <v>44402</v>
       </c>
       <c r="B168" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C168" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D168" t="s">
         <v>41</v>
       </c>
       <c r="E168" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F168" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
@@ -5643,19 +5679,19 @@
         <v>44402</v>
       </c>
       <c r="B169" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D169" t="s">
         <v>41</v>
       </c>
       <c r="E169" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="F169" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G169" t="s">
         <v>11</v>
@@ -5669,19 +5705,19 @@
         <v>44402</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C170" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D170" t="s">
         <v>41</v>
       </c>
       <c r="E170" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="F170" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G170" t="s">
         <v>11</v>
@@ -5695,19 +5731,19 @@
         <v>44402</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C171" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D171" t="s">
         <v>41</v>
       </c>
       <c r="E171" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F171" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="G171" t="s">
         <v>11</v>
@@ -5718,27 +5754,287 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="B172" t="s">
+        <v>160</v>
+      </c>
+      <c r="C172" t="s">
+        <v>283</v>
+      </c>
+      <c r="D172" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" t="s">
+        <v>51</v>
+      </c>
+      <c r="F172" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A173" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B173" t="s">
+        <v>160</v>
+      </c>
+      <c r="C173" t="s">
+        <v>284</v>
+      </c>
+      <c r="D173" t="s">
+        <v>44</v>
+      </c>
+      <c r="E173" t="s">
+        <v>51</v>
+      </c>
+      <c r="F173" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A174" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B174" t="s">
+        <v>107</v>
+      </c>
+      <c r="C174" t="s">
+        <v>274</v>
+      </c>
+      <c r="D174" t="s">
+        <v>41</v>
+      </c>
+      <c r="E174" t="s">
+        <v>155</v>
+      </c>
+      <c r="F174" t="s">
+        <v>105</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A175" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B175" t="s">
+        <v>107</v>
+      </c>
+      <c r="C175" t="s">
+        <v>275</v>
+      </c>
+      <c r="D175" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175" t="s">
+        <v>155</v>
+      </c>
+      <c r="F175" t="s">
+        <v>105</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A176" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B176" t="s">
+        <v>157</v>
+      </c>
+      <c r="C176" t="s">
+        <v>276</v>
+      </c>
+      <c r="D176" t="s">
+        <v>41</v>
+      </c>
+      <c r="E176" t="s">
+        <v>156</v>
+      </c>
+      <c r="F176" t="s">
+        <v>181</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A177" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B177" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" t="s">
+        <v>277</v>
+      </c>
+      <c r="D177" t="s">
+        <v>41</v>
+      </c>
+      <c r="E177" t="s">
+        <v>156</v>
+      </c>
+      <c r="F177" t="s">
+        <v>181</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A178" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B178" t="s">
+        <v>285</v>
+      </c>
+      <c r="C178" t="s">
+        <v>278</v>
+      </c>
+      <c r="D178" t="s">
+        <v>41</v>
+      </c>
+      <c r="E178" t="s">
+        <v>74</v>
+      </c>
+      <c r="F178" t="s">
+        <v>259</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A179" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B179" t="s">
+        <v>227</v>
+      </c>
+      <c r="C179" t="s">
+        <v>279</v>
+      </c>
+      <c r="D179" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" t="s">
+        <v>74</v>
+      </c>
+      <c r="F179" t="s">
+        <v>259</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A180" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B180" t="s">
+        <v>111</v>
+      </c>
+      <c r="C180" t="s">
+        <v>280</v>
+      </c>
+      <c r="D180" t="s">
+        <v>41</v>
+      </c>
+      <c r="E180" t="s">
         <v>113</v>
       </c>
-      <c r="C172" t="s">
-        <v>271</v>
-      </c>
-      <c r="D172" t="s">
-        <v>41</v>
-      </c>
-      <c r="E172" t="s">
-        <v>114</v>
-      </c>
-      <c r="F172" t="s">
-        <v>225</v>
-      </c>
-      <c r="G172" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" t="s">
+      <c r="F180" t="s">
+        <v>222</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A181" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B181" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181" t="s">
+        <v>281</v>
+      </c>
+      <c r="D181" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181" t="s">
+        <v>113</v>
+      </c>
+      <c r="F181" t="s">
+        <v>222</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B182" t="s">
+        <v>221</v>
+      </c>
+      <c r="C182" t="s">
+        <v>282</v>
+      </c>
+      <c r="D182" t="s">
+        <v>41</v>
+      </c>
+      <c r="E182" t="s">
+        <v>70</v>
+      </c>
+      <c r="F182" t="s">
+        <v>286</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5787,7 +6083,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -5801,7 +6097,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -5815,7 +6111,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -5829,7 +6125,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -5846,7 +6142,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -5863,7 +6159,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -5880,7 +6176,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -5897,7 +6193,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -5914,7 +6210,7 @@
         <v>44398</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -5931,7 +6227,7 @@
         <v>44399</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -5948,7 +6244,7 @@
         <v>44400</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -5965,7 +6261,7 @@
         <v>44401</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -5982,7 +6278,7 @@
         <v>44402</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -5997,6 +6293,9 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44403</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E019D17-D7D4-4D0F-8C0B-7F2ED4B29FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08704791-1FBD-4ECA-8BA3-219C78BCA77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="336">
   <si>
     <t>Source</t>
   </si>
@@ -775,9 +775,6 @@
     <t>M143 10s</t>
   </si>
   <si>
-    <t>#f9f9fc</t>
-  </si>
-  <si>
     <t>M145</t>
   </si>
   <si>
@@ -826,39 +823,21 @@
     <t>#f4f4f9</t>
   </si>
   <si>
-    <t>#eeeef7</t>
-  </si>
-  <si>
     <t>#e9e8f4</t>
   </si>
   <si>
-    <t>#e3e3f1</t>
-  </si>
-  <si>
     <t>#deddee</t>
   </si>
   <si>
-    <t>#d8d8ec</t>
-  </si>
-  <si>
     <t>#d3d2e9</t>
   </si>
   <si>
-    <t>#cdcde6</t>
-  </si>
-  <si>
     <t>#c8c7e3</t>
   </si>
   <si>
-    <t>#c2c2e0</t>
-  </si>
-  <si>
     <t>#bdbdde</t>
   </si>
   <si>
-    <t>#b7b7db</t>
-  </si>
-  <si>
     <t>M156</t>
   </si>
   <si>
@@ -899,6 +878,171 @@
   </si>
   <si>
     <t>M30 m</t>
+  </si>
+  <si>
+    <t>#fbfbfd</t>
+  </si>
+  <si>
+    <t>#f8f7fb</t>
+  </si>
+  <si>
+    <t>#f0f0f8</t>
+  </si>
+  <si>
+    <t>#edecf6</t>
+  </si>
+  <si>
+    <t>#e5e5f2</t>
+  </si>
+  <si>
+    <t>#e2e1f0</t>
+  </si>
+  <si>
+    <t>#dadaec</t>
+  </si>
+  <si>
+    <t>#d7d6eb</t>
+  </si>
+  <si>
+    <t>#cfcfe7</t>
+  </si>
+  <si>
+    <t>#cccbe5</t>
+  </si>
+  <si>
+    <t>#c4c4e1</t>
+  </si>
+  <si>
+    <t>#c1c0df</t>
+  </si>
+  <si>
+    <t>#b9b9dc</t>
+  </si>
+  <si>
+    <t>#b6b6da</t>
+  </si>
+  <si>
+    <t>H18</t>
+  </si>
+  <si>
+    <t>M165</t>
+  </si>
+  <si>
+    <t>M166</t>
+  </si>
+  <si>
+    <t>M167</t>
+  </si>
+  <si>
+    <t>M168</t>
+  </si>
+  <si>
+    <t>M169</t>
+  </si>
+  <si>
+    <t>M170</t>
+  </si>
+  <si>
+    <t>M171</t>
+  </si>
+  <si>
+    <t>M172</t>
+  </si>
+  <si>
+    <t>M173</t>
+  </si>
+  <si>
+    <t>M174</t>
+  </si>
+  <si>
+    <t>M175</t>
+  </si>
+  <si>
+    <t>M176</t>
+  </si>
+  <si>
+    <t>M177</t>
+  </si>
+  <si>
+    <t>M178</t>
+  </si>
+  <si>
+    <t>M179</t>
+  </si>
+  <si>
+    <t>M180</t>
+  </si>
+  <si>
+    <t>M181</t>
+  </si>
+  <si>
+    <t>Mildura Household</t>
+  </si>
+  <si>
+    <t>M182 m20s</t>
+  </si>
+  <si>
+    <t>Testing Site</t>
+  </si>
+  <si>
+    <t>M183 m10s</t>
+  </si>
+  <si>
+    <t>M184 f10s</t>
+  </si>
+  <si>
+    <t>M185 f10s</t>
+  </si>
+  <si>
+    <t>M186 f10s</t>
+  </si>
+  <si>
+    <t>M187 f20s</t>
+  </si>
+  <si>
+    <t>M188 20s</t>
+  </si>
+  <si>
+    <t>Lacrosse Building Household</t>
+  </si>
+  <si>
+    <t>M189</t>
+  </si>
+  <si>
+    <t>M190</t>
+  </si>
+  <si>
+    <t>M191</t>
+  </si>
+  <si>
+    <t>Trinity Grammar Close Contacts</t>
+  </si>
+  <si>
+    <t>M192 20s</t>
+  </si>
+  <si>
+    <t>M193 20s</t>
+  </si>
+  <si>
+    <t>M194</t>
+  </si>
+  <si>
+    <t>M195</t>
+  </si>
+  <si>
+    <t>M196</t>
+  </si>
+  <si>
+    <t>M197</t>
+  </si>
+  <si>
+    <t>M198</t>
+  </si>
+  <si>
+    <t>M199</t>
+  </si>
+  <si>
+    <t>Testing Site Household</t>
   </si>
 </sst>
 </file>
@@ -968,8 +1112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H182" totalsRowShown="0">
-  <autoFilter ref="A1:H182" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H218" totalsRowShown="0">
+  <autoFilter ref="A1:H218" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1295,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2201,7 +2345,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -3163,7 +3307,7 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -3342,7 +3486,7 @@
         <v>44397</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s">
         <v>147</v>
@@ -3368,7 +3512,7 @@
         <v>44397</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C80" t="s">
         <v>148</v>
@@ -4093,7 +4237,7 @@
         <v>44398</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
         <v>177</v>
@@ -4665,7 +4809,7 @@
         <v>44399</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
         <v>206</v>
@@ -4729,7 +4873,7 @@
         <v>134</v>
       </c>
       <c r="F132" t="s">
-        <v>8</v>
+        <v>313</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -4755,7 +4899,7 @@
         <v>134</v>
       </c>
       <c r="F133" t="s">
-        <v>8</v>
+        <v>313</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -5367,7 +5511,7 @@
         <v>44401</v>
       </c>
       <c r="B157" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C157" t="s">
         <v>241</v>
@@ -5393,7 +5537,7 @@
         <v>44401</v>
       </c>
       <c r="B158" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C158" t="s">
         <v>242</v>
@@ -5474,7 +5618,7 @@
         <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D161" t="s">
         <v>41</v>
@@ -5500,7 +5644,7 @@
         <v>107</v>
       </c>
       <c r="C162" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D162" t="s">
         <v>41</v>
@@ -5526,7 +5670,7 @@
         <v>107</v>
       </c>
       <c r="C163" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D163" t="s">
         <v>41</v>
@@ -5552,7 +5696,7 @@
         <v>129</v>
       </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D164" t="s">
         <v>41</v>
@@ -5578,7 +5722,7 @@
         <v>188</v>
       </c>
       <c r="C165" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D165" t="s">
         <v>41</v>
@@ -5604,7 +5748,7 @@
         <v>135</v>
       </c>
       <c r="C166" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D166" t="s">
         <v>41</v>
@@ -5613,7 +5757,7 @@
         <v>156</v>
       </c>
       <c r="F166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G166" t="s">
         <v>11</v>
@@ -5630,7 +5774,7 @@
         <v>116</v>
       </c>
       <c r="C167" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D167" t="s">
         <v>41</v>
@@ -5639,7 +5783,7 @@
         <v>156</v>
       </c>
       <c r="F167" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
@@ -5656,7 +5800,7 @@
         <v>139</v>
       </c>
       <c r="C168" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D168" t="s">
         <v>41</v>
@@ -5665,7 +5809,7 @@
         <v>74</v>
       </c>
       <c r="F168" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G168" t="s">
         <v>11</v>
@@ -5682,7 +5826,7 @@
         <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D169" t="s">
         <v>41</v>
@@ -5691,7 +5835,7 @@
         <v>228</v>
       </c>
       <c r="F169" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G169" t="s">
         <v>11</v>
@@ -5708,7 +5852,7 @@
         <v>133</v>
       </c>
       <c r="C170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D170" t="s">
         <v>41</v>
@@ -5717,7 +5861,7 @@
         <v>70</v>
       </c>
       <c r="F170" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G170" t="s">
         <v>11</v>
@@ -5734,7 +5878,7 @@
         <v>112</v>
       </c>
       <c r="C171" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D171" t="s">
         <v>41</v>
@@ -5760,7 +5904,7 @@
         <v>160</v>
       </c>
       <c r="C172" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D172" t="s">
         <v>44</v>
@@ -5786,7 +5930,7 @@
         <v>160</v>
       </c>
       <c r="C173" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D173" t="s">
         <v>44</v>
@@ -5812,7 +5956,7 @@
         <v>107</v>
       </c>
       <c r="C174" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D174" t="s">
         <v>41</v>
@@ -5838,7 +5982,7 @@
         <v>107</v>
       </c>
       <c r="C175" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D175" t="s">
         <v>41</v>
@@ -5864,7 +6008,7 @@
         <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D176" t="s">
         <v>41</v>
@@ -5890,7 +6034,7 @@
         <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D177" t="s">
         <v>41</v>
@@ -5913,10 +6057,10 @@
         <v>44403</v>
       </c>
       <c r="B178" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C178" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D178" t="s">
         <v>41</v>
@@ -5925,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="F178" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G178" t="s">
         <v>11</v>
@@ -5942,7 +6086,7 @@
         <v>227</v>
       </c>
       <c r="C179" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D179" t="s">
         <v>41</v>
@@ -5951,7 +6095,7 @@
         <v>74</v>
       </c>
       <c r="F179" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G179" t="s">
         <v>11</v>
@@ -5968,7 +6112,7 @@
         <v>111</v>
       </c>
       <c r="C180" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D180" t="s">
         <v>41</v>
@@ -5994,7 +6138,7 @@
         <v>132</v>
       </c>
       <c r="C181" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D181" t="s">
         <v>41</v>
@@ -6020,7 +6164,7 @@
         <v>221</v>
       </c>
       <c r="C182" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D182" t="s">
         <v>41</v>
@@ -6029,12 +6173,948 @@
         <v>70</v>
       </c>
       <c r="F182" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G182" t="s">
         <v>11</v>
       </c>
       <c r="H182" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A183" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B183" t="s">
+        <v>160</v>
+      </c>
+      <c r="C183" t="s">
+        <v>295</v>
+      </c>
+      <c r="D183" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" t="s">
+        <v>51</v>
+      </c>
+      <c r="F183" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A184" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B184" t="s">
+        <v>67</v>
+      </c>
+      <c r="C184" t="s">
+        <v>296</v>
+      </c>
+      <c r="D184" t="s">
+        <v>41</v>
+      </c>
+      <c r="E184" t="s">
+        <v>113</v>
+      </c>
+      <c r="F184" t="s">
+        <v>113</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A185" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B185" t="s">
+        <v>67</v>
+      </c>
+      <c r="C185" t="s">
+        <v>297</v>
+      </c>
+      <c r="D185" t="s">
+        <v>41</v>
+      </c>
+      <c r="E185" t="s">
+        <v>113</v>
+      </c>
+      <c r="F185" t="s">
+        <v>113</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A186" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B186" t="s">
+        <v>171</v>
+      </c>
+      <c r="C186" t="s">
+        <v>298</v>
+      </c>
+      <c r="D186" t="s">
+        <v>41</v>
+      </c>
+      <c r="E186" t="s">
+        <v>113</v>
+      </c>
+      <c r="F186" t="s">
+        <v>222</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A187" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B187" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" t="s">
+        <v>299</v>
+      </c>
+      <c r="D187" t="s">
+        <v>41</v>
+      </c>
+      <c r="E187" t="s">
+        <v>155</v>
+      </c>
+      <c r="F187" t="s">
+        <v>105</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A188" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B188" t="s">
+        <v>107</v>
+      </c>
+      <c r="C188" t="s">
+        <v>300</v>
+      </c>
+      <c r="D188" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188" t="s">
+        <v>155</v>
+      </c>
+      <c r="F188" t="s">
+        <v>105</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B189" t="s">
+        <v>179</v>
+      </c>
+      <c r="C189" t="s">
+        <v>301</v>
+      </c>
+      <c r="D189" t="s">
+        <v>41</v>
+      </c>
+      <c r="E189" t="s">
+        <v>156</v>
+      </c>
+      <c r="F189" t="s">
+        <v>181</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B190" t="s">
+        <v>180</v>
+      </c>
+      <c r="C190" t="s">
+        <v>302</v>
+      </c>
+      <c r="D190" t="s">
+        <v>41</v>
+      </c>
+      <c r="E190" t="s">
+        <v>156</v>
+      </c>
+      <c r="F190" t="s">
+        <v>181</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A191" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B191" t="s">
+        <v>202</v>
+      </c>
+      <c r="C191" t="s">
+        <v>303</v>
+      </c>
+      <c r="D191" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" t="s">
+        <v>93</v>
+      </c>
+      <c r="F191" t="s">
+        <v>185</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A192" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B192" t="s">
+        <v>170</v>
+      </c>
+      <c r="C192" t="s">
+        <v>304</v>
+      </c>
+      <c r="D192" t="s">
+        <v>41</v>
+      </c>
+      <c r="E192" t="s">
+        <v>70</v>
+      </c>
+      <c r="F192" t="s">
+        <v>279</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A193" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B193" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" t="s">
+        <v>305</v>
+      </c>
+      <c r="D193" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" t="s">
+        <v>155</v>
+      </c>
+      <c r="F193" t="s">
+        <v>105</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A194" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B194" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" t="s">
+        <v>306</v>
+      </c>
+      <c r="D194" t="s">
+        <v>41</v>
+      </c>
+      <c r="E194" t="s">
+        <v>155</v>
+      </c>
+      <c r="F194" t="s">
+        <v>105</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A195" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B195" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" t="s">
+        <v>307</v>
+      </c>
+      <c r="D195" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" t="s">
+        <v>155</v>
+      </c>
+      <c r="F195" t="s">
+        <v>104</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A196" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B196" t="s">
+        <v>130</v>
+      </c>
+      <c r="C196" t="s">
+        <v>308</v>
+      </c>
+      <c r="D196" t="s">
+        <v>41</v>
+      </c>
+      <c r="E196" t="s">
+        <v>155</v>
+      </c>
+      <c r="F196" t="s">
+        <v>183</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A197" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B197" t="s">
+        <v>189</v>
+      </c>
+      <c r="C197" t="s">
+        <v>309</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+      <c r="E197" t="s">
+        <v>156</v>
+      </c>
+      <c r="F197" t="s">
+        <v>119</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B198" t="s">
+        <v>203</v>
+      </c>
+      <c r="C198" t="s">
+        <v>310</v>
+      </c>
+      <c r="D198" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" t="s">
+        <v>93</v>
+      </c>
+      <c r="F198" t="s">
+        <v>185</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A199" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B199" t="s">
+        <v>137</v>
+      </c>
+      <c r="C199" t="s">
+        <v>311</v>
+      </c>
+      <c r="D199" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" t="s">
+        <v>134</v>
+      </c>
+      <c r="F199" t="s">
+        <v>313</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B200" t="s">
+        <v>221</v>
+      </c>
+      <c r="C200" t="s">
+        <v>312</v>
+      </c>
+      <c r="D200" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" t="s">
+        <v>70</v>
+      </c>
+      <c r="F200" t="s">
+        <v>279</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B201" t="s">
+        <v>314</v>
+      </c>
+      <c r="C201" t="s">
+        <v>314</v>
+      </c>
+      <c r="D201" t="s">
+        <v>41</v>
+      </c>
+      <c r="E201" t="s">
+        <v>315</v>
+      </c>
+      <c r="F201" t="s">
+        <v>315</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B202" t="s">
+        <v>80</v>
+      </c>
+      <c r="C202" t="s">
+        <v>316</v>
+      </c>
+      <c r="D202" t="s">
+        <v>41</v>
+      </c>
+      <c r="E202" t="s">
+        <v>74</v>
+      </c>
+      <c r="F202" t="s">
+        <v>81</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B203" t="s">
+        <v>80</v>
+      </c>
+      <c r="C203" t="s">
+        <v>317</v>
+      </c>
+      <c r="D203" t="s">
+        <v>41</v>
+      </c>
+      <c r="E203" t="s">
+        <v>74</v>
+      </c>
+      <c r="F203" t="s">
+        <v>81</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>80</v>
+      </c>
+      <c r="C204" t="s">
+        <v>318</v>
+      </c>
+      <c r="D204" t="s">
+        <v>41</v>
+      </c>
+      <c r="E204" t="s">
+        <v>74</v>
+      </c>
+      <c r="F204" t="s">
+        <v>81</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B205" t="s">
+        <v>80</v>
+      </c>
+      <c r="C205" t="s">
+        <v>319</v>
+      </c>
+      <c r="D205" t="s">
+        <v>41</v>
+      </c>
+      <c r="E205" t="s">
+        <v>74</v>
+      </c>
+      <c r="F205" t="s">
+        <v>81</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B206" t="s">
+        <v>218</v>
+      </c>
+      <c r="C206" t="s">
+        <v>320</v>
+      </c>
+      <c r="D206" t="s">
+        <v>41</v>
+      </c>
+      <c r="E206" t="s">
+        <v>155</v>
+      </c>
+      <c r="F206" t="s">
+        <v>322</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B207" t="s">
+        <v>218</v>
+      </c>
+      <c r="C207" t="s">
+        <v>321</v>
+      </c>
+      <c r="D207" t="s">
+        <v>41</v>
+      </c>
+      <c r="E207" t="s">
+        <v>155</v>
+      </c>
+      <c r="F207" t="s">
+        <v>322</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A208" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B208" t="s">
+        <v>245</v>
+      </c>
+      <c r="C208" t="s">
+        <v>323</v>
+      </c>
+      <c r="D208" t="s">
+        <v>41</v>
+      </c>
+      <c r="E208" t="s">
+        <v>74</v>
+      </c>
+      <c r="F208" t="s">
+        <v>258</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A209" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B209" t="s">
+        <v>82</v>
+      </c>
+      <c r="C209" t="s">
+        <v>324</v>
+      </c>
+      <c r="D209" t="s">
+        <v>41</v>
+      </c>
+      <c r="E209" t="s">
+        <v>156</v>
+      </c>
+      <c r="F209" t="s">
+        <v>244</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B210" t="s">
+        <v>151</v>
+      </c>
+      <c r="C210" t="s">
+        <v>325</v>
+      </c>
+      <c r="D210" t="s">
+        <v>41</v>
+      </c>
+      <c r="E210" t="s">
+        <v>156</v>
+      </c>
+      <c r="F210" t="s">
+        <v>326</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B211" t="s">
+        <v>314</v>
+      </c>
+      <c r="C211" t="s">
+        <v>327</v>
+      </c>
+      <c r="D211" t="s">
+        <v>41</v>
+      </c>
+      <c r="E211" t="s">
+        <v>315</v>
+      </c>
+      <c r="F211" t="s">
+        <v>315</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B212" t="s">
+        <v>314</v>
+      </c>
+      <c r="C212" t="s">
+        <v>328</v>
+      </c>
+      <c r="D212" t="s">
+        <v>41</v>
+      </c>
+      <c r="E212" t="s">
+        <v>315</v>
+      </c>
+      <c r="F212" t="s">
+        <v>315</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B213" t="s">
+        <v>172</v>
+      </c>
+      <c r="C213" t="s">
+        <v>329</v>
+      </c>
+      <c r="D213" t="s">
+        <v>41</v>
+      </c>
+      <c r="E213" t="s">
+        <v>113</v>
+      </c>
+      <c r="F213" t="s">
+        <v>222</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A214" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B214" t="s">
+        <v>243</v>
+      </c>
+      <c r="C214" t="s">
+        <v>330</v>
+      </c>
+      <c r="D214" t="s">
+        <v>41</v>
+      </c>
+      <c r="E214" t="s">
+        <v>70</v>
+      </c>
+      <c r="F214" t="s">
+        <v>279</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A215" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B215" t="s">
+        <v>147</v>
+      </c>
+      <c r="C215" t="s">
+        <v>331</v>
+      </c>
+      <c r="D215" t="s">
+        <v>41</v>
+      </c>
+      <c r="E215" t="s">
+        <v>155</v>
+      </c>
+      <c r="F215" t="s">
+        <v>183</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A216" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B216" t="s">
+        <v>148</v>
+      </c>
+      <c r="C216" t="s">
+        <v>332</v>
+      </c>
+      <c r="D216" t="s">
+        <v>41</v>
+      </c>
+      <c r="E216" t="s">
+        <v>155</v>
+      </c>
+      <c r="F216" t="s">
+        <v>183</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A217" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B217" t="s">
+        <v>213</v>
+      </c>
+      <c r="C217" t="s">
+        <v>333</v>
+      </c>
+      <c r="D217" t="s">
+        <v>41</v>
+      </c>
+      <c r="E217" t="s">
+        <v>113</v>
+      </c>
+      <c r="F217" t="s">
+        <v>222</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A218" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B218" t="s">
+        <v>314</v>
+      </c>
+      <c r="C218" t="s">
+        <v>334</v>
+      </c>
+      <c r="D218" t="s">
+        <v>41</v>
+      </c>
+      <c r="E218" t="s">
+        <v>315</v>
+      </c>
+      <c r="F218" t="s">
+        <v>335</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6052,7 +7132,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6083,7 +7165,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -6097,7 +7179,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -6111,7 +7193,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6125,7 +7207,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -6142,7 +7224,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -6159,7 +7241,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -6176,7 +7258,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -6193,7 +7275,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -6210,7 +7292,7 @@
         <v>44398</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -6227,7 +7309,7 @@
         <v>44399</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -6244,7 +7326,7 @@
         <v>44400</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -6261,7 +7343,7 @@
         <v>44401</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -6278,7 +7360,7 @@
         <v>44402</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -6295,7 +7377,7 @@
         <v>44403</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -6311,6 +7393,9 @@
       <c r="A16" s="1">
         <v>44404</v>
       </c>
+      <c r="B16" t="s">
+        <v>265</v>
+      </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -6321,202 +7406,172 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44405</v>
       </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44406</v>
       </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44407</v>
       </c>
+      <c r="B19" t="s">
+        <v>266</v>
+      </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44408</v>
       </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44409</v>
       </c>
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44410</v>
       </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44411</v>
       </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44412</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44413</v>
       </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
       <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44414</v>
       </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
       <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44415</v>
       </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44416</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44417</v>
       </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44418</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44419</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
       </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44420</v>
       </c>
@@ -6526,22 +7581,16 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44421</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44422</v>
       </c>
@@ -6551,44 +7600,32 @@
       <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44423</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44424</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44425</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44426</v>
       </c>
@@ -6597,9 +7634,6 @@
       </c>
       <c r="D38" t="s">
         <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/2021-07 Victoria Outbreak Paths.xlsx
+++ b/2021-07 Victoria Outbreak Paths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08704791-1FBD-4ECA-8BA3-219C78BCA77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F25C287-CF83-452D-901C-B8E76600D688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="348">
   <si>
     <t>Source</t>
   </si>
@@ -820,24 +820,6 @@
     <t>Young &amp; Jacksons Close Contacts</t>
   </si>
   <si>
-    <t>#f4f4f9</t>
-  </si>
-  <si>
-    <t>#e9e8f4</t>
-  </si>
-  <si>
-    <t>#deddee</t>
-  </si>
-  <si>
-    <t>#d3d2e9</t>
-  </si>
-  <si>
-    <t>#c8c7e3</t>
-  </si>
-  <si>
-    <t>#bdbdde</t>
-  </si>
-  <si>
     <t>M156</t>
   </si>
   <si>
@@ -880,48 +862,12 @@
     <t>M30 m</t>
   </si>
   <si>
-    <t>#fbfbfd</t>
-  </si>
-  <si>
-    <t>#f8f7fb</t>
-  </si>
-  <si>
-    <t>#f0f0f8</t>
-  </si>
-  <si>
-    <t>#edecf6</t>
-  </si>
-  <si>
     <t>#e5e5f2</t>
   </si>
   <si>
-    <t>#e2e1f0</t>
-  </si>
-  <si>
-    <t>#dadaec</t>
-  </si>
-  <si>
-    <t>#d7d6eb</t>
-  </si>
-  <si>
-    <t>#cfcfe7</t>
-  </si>
-  <si>
     <t>#cccbe5</t>
   </si>
   <si>
-    <t>#c4c4e1</t>
-  </si>
-  <si>
-    <t>#c1c0df</t>
-  </si>
-  <si>
-    <t>#b9b9dc</t>
-  </si>
-  <si>
-    <t>#b6b6da</t>
-  </si>
-  <si>
     <t>H18</t>
   </si>
   <si>
@@ -1043,6 +989,96 @@
   </si>
   <si>
     <t>Testing Site Household</t>
+  </si>
+  <si>
+    <t>#fcfcfd</t>
+  </si>
+  <si>
+    <t>#f9f8fc</t>
+  </si>
+  <si>
+    <t>#f5f5fa</t>
+  </si>
+  <si>
+    <t>#f2f2f9</t>
+  </si>
+  <si>
+    <t>#efeff7</t>
+  </si>
+  <si>
+    <t>#ecebf5</t>
+  </si>
+  <si>
+    <t>#e8e8f4</t>
+  </si>
+  <si>
+    <t>#e2e2f0</t>
+  </si>
+  <si>
+    <t>#dfdeef</t>
+  </si>
+  <si>
+    <t>#dcdbed</t>
+  </si>
+  <si>
+    <t>#d8d8ec</t>
+  </si>
+  <si>
+    <t>#d5d5ea</t>
+  </si>
+  <si>
+    <t>#d2d1e8</t>
+  </si>
+  <si>
+    <t>#cfcee7</t>
+  </si>
+  <si>
+    <t>#c8c8e3</t>
+  </si>
+  <si>
+    <t>#c5c5e2</t>
+  </si>
+  <si>
+    <t>#c2c2e0</t>
+  </si>
+  <si>
+    <t>#bfbedf</t>
+  </si>
+  <si>
+    <t>#bcbbdd</t>
+  </si>
+  <si>
+    <t>#b8b8db</t>
+  </si>
+  <si>
+    <t>#b5b5da</t>
+  </si>
+  <si>
+    <t>M200</t>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>M204</t>
+  </si>
+  <si>
+    <t>M205</t>
+  </si>
+  <si>
+    <t>H19</t>
+  </si>
+  <si>
+    <t>? 20s</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1148,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H218" totalsRowShown="0">
-  <autoFilter ref="A1:H218" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H226" totalsRowShown="0">
+  <autoFilter ref="A1:H226" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1439,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="H224" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2345,7 +2381,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D35" t="s">
         <v>41</v>
@@ -3307,7 +3343,7 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -3486,7 +3522,7 @@
         <v>44397</v>
       </c>
       <c r="B79" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C79" t="s">
         <v>147</v>
@@ -3512,7 +3548,7 @@
         <v>44397</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C80" t="s">
         <v>148</v>
@@ -4873,7 +4909,7 @@
         <v>134</v>
       </c>
       <c r="F132" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -4899,7 +4935,7 @@
         <v>134</v>
       </c>
       <c r="F133" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -5511,7 +5547,7 @@
         <v>44401</v>
       </c>
       <c r="B157" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C157" t="s">
         <v>241</v>
@@ -5537,7 +5573,7 @@
         <v>44401</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C158" t="s">
         <v>242</v>
@@ -5783,7 +5819,7 @@
         <v>156</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="G167" t="s">
         <v>11</v>
@@ -5904,7 +5940,7 @@
         <v>160</v>
       </c>
       <c r="C172" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D172" t="s">
         <v>44</v>
@@ -5930,7 +5966,7 @@
         <v>160</v>
       </c>
       <c r="C173" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D173" t="s">
         <v>44</v>
@@ -5956,7 +5992,7 @@
         <v>107</v>
       </c>
       <c r="C174" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D174" t="s">
         <v>41</v>
@@ -5982,7 +6018,7 @@
         <v>107</v>
       </c>
       <c r="C175" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D175" t="s">
         <v>41</v>
@@ -6008,7 +6044,7 @@
         <v>157</v>
       </c>
       <c r="C176" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D176" t="s">
         <v>41</v>
@@ -6034,7 +6070,7 @@
         <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D177" t="s">
         <v>41</v>
@@ -6057,10 +6093,10 @@
         <v>44403</v>
       </c>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C178" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D178" t="s">
         <v>41</v>
@@ -6086,7 +6122,7 @@
         <v>227</v>
       </c>
       <c r="C179" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D179" t="s">
         <v>41</v>
@@ -6112,7 +6148,7 @@
         <v>111</v>
       </c>
       <c r="C180" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D180" t="s">
         <v>41</v>
@@ -6138,7 +6174,7 @@
         <v>132</v>
       </c>
       <c r="C181" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D181" t="s">
         <v>41</v>
@@ -6164,7 +6200,7 @@
         <v>221</v>
       </c>
       <c r="C182" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D182" t="s">
         <v>41</v>
@@ -6173,7 +6209,7 @@
         <v>70</v>
       </c>
       <c r="F182" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G182" t="s">
         <v>11</v>
@@ -6190,7 +6226,7 @@
         <v>160</v>
       </c>
       <c r="C183" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D183" t="s">
         <v>44</v>
@@ -6216,7 +6252,7 @@
         <v>67</v>
       </c>
       <c r="C184" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="D184" t="s">
         <v>41</v>
@@ -6242,7 +6278,7 @@
         <v>67</v>
       </c>
       <c r="C185" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="D185" t="s">
         <v>41</v>
@@ -6268,7 +6304,7 @@
         <v>171</v>
       </c>
       <c r="C186" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="D186" t="s">
         <v>41</v>
@@ -6294,7 +6330,7 @@
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D187" t="s">
         <v>41</v>
@@ -6320,7 +6356,7 @@
         <v>107</v>
       </c>
       <c r="C188" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D188" t="s">
         <v>41</v>
@@ -6346,7 +6382,7 @@
         <v>179</v>
       </c>
       <c r="C189" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D189" t="s">
         <v>41</v>
@@ -6372,7 +6408,7 @@
         <v>180</v>
       </c>
       <c r="C190" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="D190" t="s">
         <v>41</v>
@@ -6398,7 +6434,7 @@
         <v>202</v>
       </c>
       <c r="C191" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="D191" t="s">
         <v>41</v>
@@ -6424,7 +6460,7 @@
         <v>170</v>
       </c>
       <c r="C192" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D192" t="s">
         <v>41</v>
@@ -6433,7 +6469,7 @@
         <v>70</v>
       </c>
       <c r="F192" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G192" t="s">
         <v>11</v>
@@ -6450,7 +6486,7 @@
         <v>85</v>
       </c>
       <c r="C193" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D193" t="s">
         <v>41</v>
@@ -6476,7 +6512,7 @@
         <v>85</v>
       </c>
       <c r="C194" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="D194" t="s">
         <v>41</v>
@@ -6502,7 +6538,7 @@
         <v>86</v>
       </c>
       <c r="C195" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D195" t="s">
         <v>41</v>
@@ -6528,7 +6564,7 @@
         <v>130</v>
       </c>
       <c r="C196" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="D196" t="s">
         <v>41</v>
@@ -6554,7 +6590,7 @@
         <v>189</v>
       </c>
       <c r="C197" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D197" t="s">
         <v>41</v>
@@ -6580,7 +6616,7 @@
         <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D198" t="s">
         <v>41</v>
@@ -6606,7 +6642,7 @@
         <v>137</v>
       </c>
       <c r="C199" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D199" t="s">
         <v>41</v>
@@ -6615,7 +6651,7 @@
         <v>134</v>
       </c>
       <c r="F199" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G199" t="s">
         <v>11</v>
@@ -6632,7 +6668,7 @@
         <v>221</v>
       </c>
       <c r="C200" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D200" t="s">
         <v>41</v>
@@ -6641,7 +6677,7 @@
         <v>70</v>
       </c>
       <c r="F200" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G200" t="s">
         <v>11</v>
@@ -6655,19 +6691,19 @@
         <v>44406</v>
       </c>
       <c r="B201" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C201" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="D201" t="s">
         <v>41</v>
       </c>
       <c r="E201" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F201" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="G201" t="s">
         <v>11</v>
@@ -6684,7 +6720,7 @@
         <v>80</v>
       </c>
       <c r="C202" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="D202" t="s">
         <v>41</v>
@@ -6710,7 +6746,7 @@
         <v>80</v>
       </c>
       <c r="C203" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D203" t="s">
         <v>41</v>
@@ -6736,7 +6772,7 @@
         <v>80</v>
       </c>
       <c r="C204" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="D204" t="s">
         <v>41</v>
@@ -6762,7 +6798,7 @@
         <v>80</v>
       </c>
       <c r="C205" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D205" t="s">
         <v>41</v>
@@ -6788,7 +6824,7 @@
         <v>218</v>
       </c>
       <c r="C206" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D206" t="s">
         <v>41</v>
@@ -6797,7 +6833,7 @@
         <v>155</v>
       </c>
       <c r="F206" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G206" t="s">
         <v>11</v>
@@ -6814,7 +6850,7 @@
         <v>218</v>
       </c>
       <c r="C207" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D207" t="s">
         <v>41</v>
@@ -6823,7 +6859,7 @@
         <v>155</v>
       </c>
       <c r="F207" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G207" t="s">
         <v>11</v>
@@ -6840,7 +6876,7 @@
         <v>245</v>
       </c>
       <c r="C208" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D208" t="s">
         <v>41</v>
@@ -6866,7 +6902,7 @@
         <v>82</v>
       </c>
       <c r="C209" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="D209" t="s">
         <v>41</v>
@@ -6892,7 +6928,7 @@
         <v>151</v>
       </c>
       <c r="C210" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D210" t="s">
         <v>41</v>
@@ -6901,7 +6937,7 @@
         <v>156</v>
       </c>
       <c r="F210" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="G210" t="s">
         <v>11</v>
@@ -6915,19 +6951,19 @@
         <v>44408</v>
       </c>
       <c r="B211" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C211" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D211" t="s">
         <v>41</v>
       </c>
       <c r="E211" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F211" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="G211" t="s">
         <v>11</v>
@@ -6941,19 +6977,19 @@
         <v>44408</v>
       </c>
       <c r="B212" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C212" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D212" t="s">
         <v>41</v>
       </c>
       <c r="E212" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F212" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="G212" t="s">
         <v>11</v>
@@ -6970,7 +7006,7 @@
         <v>172</v>
       </c>
       <c r="C213" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D213" t="s">
         <v>41</v>
@@ -6996,7 +7032,7 @@
         <v>243</v>
       </c>
       <c r="C214" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D214" t="s">
         <v>41</v>
@@ -7005,7 +7041,7 @@
         <v>70</v>
       </c>
       <c r="F214" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G214" t="s">
         <v>11</v>
@@ -7022,7 +7058,7 @@
         <v>147</v>
       </c>
       <c r="C215" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="D215" t="s">
         <v>41</v>
@@ -7048,7 +7084,7 @@
         <v>148</v>
       </c>
       <c r="C216" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D216" t="s">
         <v>41</v>
@@ -7074,7 +7110,7 @@
         <v>213</v>
       </c>
       <c r="C217" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D217" t="s">
         <v>41</v>
@@ -7097,24 +7133,232 @@
         <v>44410</v>
       </c>
       <c r="B218" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C218" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="D218" t="s">
         <v>41</v>
       </c>
       <c r="E218" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F218" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="G218" t="s">
         <v>11</v>
       </c>
       <c r="H218" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A219" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" t="s">
+        <v>339</v>
+      </c>
+      <c r="D219" t="s">
+        <v>41</v>
+      </c>
+      <c r="E219" t="s">
+        <v>70</v>
+      </c>
+      <c r="F219" t="s">
+        <v>230</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A220" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" t="s">
+        <v>340</v>
+      </c>
+      <c r="D220" t="s">
+        <v>41</v>
+      </c>
+      <c r="E220" t="s">
+        <v>70</v>
+      </c>
+      <c r="F220" t="s">
+        <v>230</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A221" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B221" t="s">
+        <v>296</v>
+      </c>
+      <c r="C221" t="s">
+        <v>341</v>
+      </c>
+      <c r="D221" t="s">
+        <v>41</v>
+      </c>
+      <c r="E221" t="s">
+        <v>297</v>
+      </c>
+      <c r="F221" t="s">
+        <v>317</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A222" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B222" t="s">
+        <v>186</v>
+      </c>
+      <c r="C222" t="s">
+        <v>345</v>
+      </c>
+      <c r="D222" t="s">
+        <v>44</v>
+      </c>
+      <c r="E222" t="s">
+        <v>51</v>
+      </c>
+      <c r="F222" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A223" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B223" t="s">
+        <v>346</v>
+      </c>
+      <c r="C223" t="s">
+        <v>346</v>
+      </c>
+      <c r="D223" t="s">
+        <v>347</v>
+      </c>
+      <c r="E223" t="s">
+        <v>347</v>
+      </c>
+      <c r="F223" t="s">
+        <v>347</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A224" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B224" t="s">
+        <v>341</v>
+      </c>
+      <c r="C224" t="s">
+        <v>342</v>
+      </c>
+      <c r="D224" t="s">
+        <v>41</v>
+      </c>
+      <c r="E224" t="s">
+        <v>297</v>
+      </c>
+      <c r="F224" t="s">
+        <v>317</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A225" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B225" t="s">
+        <v>341</v>
+      </c>
+      <c r="C225" t="s">
+        <v>343</v>
+      </c>
+      <c r="D225" t="s">
+        <v>41</v>
+      </c>
+      <c r="E225" t="s">
+        <v>297</v>
+      </c>
+      <c r="F225" t="s">
+        <v>317</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A226" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B226" t="s">
+        <v>341</v>
+      </c>
+      <c r="C226" t="s">
+        <v>344</v>
+      </c>
+      <c r="D226" t="s">
+        <v>41</v>
+      </c>
+      <c r="E226" t="s">
+        <v>297</v>
+      </c>
+      <c r="F226" t="s">
+        <v>317</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7132,9 +7376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7165,7 +7407,7 @@
         <v>44390</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -7179,7 +7421,7 @@
         <v>44391</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -7193,7 +7435,7 @@
         <v>44392</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -7207,7 +7449,7 @@
         <v>44393</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -7224,7 +7466,7 @@
         <v>44394</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -7241,7 +7483,7 @@
         <v>44395</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -7258,7 +7500,7 @@
         <v>44396</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -7275,7 +7517,7 @@
         <v>44397</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -7292,7 +7534,7 @@
         <v>44398</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -7309,7 +7551,7 @@
         <v>44399</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -7326,7 +7568,7 @@
         <v>44400</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -7343,7 +7585,7 @@
         <v>44401</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -7360,7 +7602,7 @@
         <v>44402</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -7377,7 +7619,7 @@
         <v>44403</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -7394,7 +7636,7 @@
         <v>44404</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -7411,7 +7653,7 @@
         <v>44405</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -7425,7 +7667,7 @@
         <v>44406</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -7439,7 +7681,7 @@
         <v>44407</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -7453,7 +7695,7 @@
         <v>44408</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -7467,7 +7709,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -7481,7 +7723,7 @@
         <v>44410</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -7494,6 +7736,9 @@
       <c r="A23" s="1">
         <v>44411</v>
       </c>
+      <c r="B23" t="s">
+        <v>337</v>
+      </c>
       <c r="C23" t="s">
         <v>35</v>
       </c>
@@ -7505,6 +7750,9 @@
       <c r="A24" s="1">
         <v>44412</v>
       </c>
+      <c r="B24" t="s">
+        <v>338</v>
+      </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
@@ -7515,6 +7763,9 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44413</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
